--- a/3m_portfolio_returns.xlsx
+++ b/3m_portfolio_returns.xlsx
@@ -18,12 +18,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
   <si>
     <t>ACCU</t>
-  </si>
-  <si>
-    <t>LGC</t>
   </si>
   <si>
     <t>NZU</t>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>LGC</t>
   </si>
 </sst>
 </file>
@@ -405,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -433,268 +433,235 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>14100.15</v>
+        <v>24699.76</v>
       </c>
       <c r="C2">
-        <v>227067.67</v>
+        <v>817938.13</v>
       </c>
       <c r="D2">
-        <v>814837.35</v>
+        <v>204767.08</v>
       </c>
       <c r="E2">
-        <v>372140.59</v>
+        <v>1220522.59</v>
       </c>
       <c r="F2">
-        <v>1259506.73</v>
+        <v>487933.68</v>
       </c>
       <c r="G2">
-        <v>507373.31</v>
-      </c>
-      <c r="H2">
-        <v>3195025.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>2755861.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>548996.59</v>
+        <v>580001.85</v>
       </c>
       <c r="C3">
-        <v>60049.02</v>
+        <v>161902.82</v>
       </c>
       <c r="D3">
-        <v>176612.93</v>
+        <v>-419227.18</v>
       </c>
       <c r="E3">
-        <v>97242.48</v>
+        <v>-29609.31</v>
       </c>
       <c r="F3">
-        <v>-54847.62</v>
+        <v>403361.98</v>
       </c>
       <c r="G3">
-        <v>392796.88</v>
-      </c>
-      <c r="H3">
-        <v>1220850.28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>696430.1599999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>445676.72</v>
+        <v>405278.26</v>
       </c>
       <c r="C4">
-        <v>109826.59</v>
+        <v>252715.34</v>
       </c>
       <c r="D4">
-        <v>241951.26</v>
+        <v>188144.08</v>
       </c>
       <c r="E4">
-        <v>-37629.16</v>
+        <v>39508.61</v>
       </c>
       <c r="F4">
-        <v>5169.25</v>
+        <v>-173600.39</v>
       </c>
       <c r="G4">
-        <v>-151541.16</v>
-      </c>
-      <c r="H4">
-        <v>613453.4999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>712045.8999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>-76487.8</v>
+        <v>-110927.59</v>
       </c>
       <c r="C5">
-        <v>26041.67</v>
+        <v>4676.7</v>
       </c>
       <c r="D5">
-        <v>15982.97</v>
+        <v>-8739.889999999999</v>
       </c>
       <c r="E5">
-        <v>299292.69</v>
+        <v>247233.3</v>
       </c>
       <c r="F5">
-        <v>195632.97</v>
+        <v>25257.8</v>
       </c>
       <c r="G5">
-        <v>800.98</v>
-      </c>
-      <c r="H5">
-        <v>461263.48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>157500.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>19380.94</v>
+        <v>-32117.52</v>
       </c>
       <c r="C6">
-        <v>304568.53</v>
+        <v>74803.42999999999</v>
       </c>
       <c r="D6">
-        <v>87627.89999999999</v>
+        <v>30643.55</v>
       </c>
       <c r="E6">
-        <v>-248746.66</v>
+        <v>-261802.29</v>
       </c>
       <c r="F6">
-        <v>-244267.96</v>
+        <v>-233487.21</v>
       </c>
       <c r="G6">
-        <v>-196721.09</v>
-      </c>
-      <c r="H6">
-        <v>-278158.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-421960.04</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>-51922.61</v>
+        <v>-110170.55</v>
       </c>
       <c r="C7">
-        <v>-112840.47</v>
+        <v>-55843.88</v>
       </c>
       <c r="D7">
-        <v>-45847.84</v>
+        <v>-144544.41</v>
       </c>
       <c r="E7">
-        <v>238768.19</v>
+        <v>-172054.6</v>
       </c>
       <c r="F7">
-        <v>-173251.84</v>
+        <v>118338.35</v>
       </c>
       <c r="G7">
-        <v>83199.32000000001</v>
-      </c>
-      <c r="H7">
-        <v>-61895.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-364275.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>-76025.03</v>
+        <v>-111567.93</v>
       </c>
       <c r="C8">
-        <v>-140350.88</v>
+        <v>-560157.64</v>
       </c>
       <c r="D8">
-        <v>-545530.1800000001</v>
+        <v>183668.65</v>
       </c>
       <c r="E8">
-        <v>366734.62</v>
+        <v>118473.83</v>
       </c>
       <c r="F8">
-        <v>75795.86</v>
+        <v>5871.6</v>
       </c>
       <c r="G8">
-        <v>-15395.74</v>
-      </c>
-      <c r="H8">
-        <v>-334771.3500000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-363711.49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>93017.33</v>
+        <v>41840.33</v>
       </c>
       <c r="C9">
-        <v>168367.35</v>
+        <v>-301148.53</v>
       </c>
       <c r="D9">
-        <v>-319330.01</v>
+        <v>240260</v>
       </c>
       <c r="E9">
-        <v>54727.9</v>
+        <v>-547001.91</v>
       </c>
       <c r="F9">
-        <v>-453373.17</v>
+        <v>102925.48</v>
       </c>
       <c r="G9">
-        <v>69007.3</v>
-      </c>
-      <c r="H9">
-        <v>-387583.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>-463124.6300000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-48115.52</v>
+        <v>-89335.11</v>
       </c>
       <c r="C10">
-        <v>-100436.68</v>
+        <v>824580.72</v>
       </c>
       <c r="D10">
-        <v>821623.75</v>
+        <v>133966.55</v>
       </c>
       <c r="E10">
-        <v>-78167.10000000001</v>
+        <v>-550051.54</v>
       </c>
       <c r="F10">
-        <v>-455493.84</v>
+        <v>234879.65</v>
       </c>
       <c r="G10">
-        <v>198176.64</v>
-      </c>
-      <c r="H10">
-        <v>337587.2500000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>554040.2699999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>-56600.74</v>
+        <v>-111920.62</v>
       </c>
       <c r="C11">
-        <v>-38834.95</v>
+        <v>171926.47</v>
       </c>
       <c r="D11">
-        <v>186853.59</v>
+        <v>197349.62</v>
       </c>
       <c r="E11">
-        <v>-21747.93</v>
+        <v>252838.35</v>
       </c>
       <c r="F11">
-        <v>200979.81</v>
+        <v>171146.1</v>
       </c>
       <c r="G11">
-        <v>133568.48</v>
-      </c>
-      <c r="H11">
-        <v>404218.26</v>
+        <v>681339.92</v>
       </c>
     </row>
   </sheetData>
@@ -712,25 +679,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -738,22 +705,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>849005.7300100034</v>
+        <v>877008.5479563562</v>
       </c>
       <c r="C2">
-        <v>1183158.04239922</v>
+        <v>1222182.230448784</v>
       </c>
       <c r="D2">
-        <v>235834.549944254</v>
+        <v>243613.0981143249</v>
       </c>
       <c r="E2">
-        <v>1456867.126691216</v>
+        <v>1504919.081441013</v>
       </c>
       <c r="F2">
-        <v>604011.4288248618</v>
+        <v>623933.5818575622</v>
       </c>
       <c r="G2">
-        <v>4328876.877869555</v>
+        <v>4471656.53981804</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -761,22 +728,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>2351580.164924379</v>
+        <v>2429142.505102996</v>
       </c>
       <c r="C3">
-        <v>140292.720536884</v>
+        <v>144920.0055757571</v>
       </c>
       <c r="D3">
-        <v>732029.3084825821</v>
+        <v>756173.8845817216</v>
       </c>
       <c r="E3">
-        <v>-13184.06130200204</v>
+        <v>-13618.91215798999</v>
       </c>
       <c r="F3">
-        <v>501084.3715913632</v>
+        <v>517611.673984564</v>
       </c>
       <c r="G3">
-        <v>3711802.504233206</v>
+        <v>3834229.157087049</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -784,22 +751,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>-983052.7277683875</v>
+        <v>-1015476.827623449</v>
       </c>
       <c r="C4">
-        <v>276121.0258169275</v>
+        <v>285228.3457604812</v>
       </c>
       <c r="D4">
-        <v>-118898.1444643893</v>
+        <v>-122819.7706394636</v>
       </c>
       <c r="E4">
-        <v>65283.43417204703</v>
+        <v>67436.68244519035</v>
       </c>
       <c r="F4">
-        <v>-190427.4820904161</v>
+        <v>-196708.3656280306</v>
       </c>
       <c r="G4">
-        <v>-950973.8943342183</v>
+        <v>-982339.9356852712</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -807,22 +774,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>368851.1314425654</v>
+        <v>381016.9752266475</v>
       </c>
       <c r="C5">
-        <v>3222.191530330756</v>
+        <v>3328.469308704601</v>
       </c>
       <c r="D5">
-        <v>434524.6870784801</v>
+        <v>448856.6465404155</v>
       </c>
       <c r="E5">
-        <v>297595.7751805053</v>
+        <v>307411.3983493681</v>
       </c>
       <c r="F5">
-        <v>97319.35771501969</v>
+        <v>100529.2491920982</v>
       </c>
       <c r="G5">
-        <v>1201513.142946901</v>
+        <v>1241142.738617234</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -830,22 +797,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-303092.5545902534</v>
+        <v>-313089.4784354972</v>
       </c>
       <c r="C6">
-        <v>64359.03609266735</v>
+        <v>66481.79487650338</v>
       </c>
       <c r="D6">
-        <v>-629913.7077294097</v>
+        <v>-650690.1975173533</v>
       </c>
       <c r="E6">
-        <v>-286605.5768955487</v>
+        <v>-296058.7095524046</v>
       </c>
       <c r="F6">
-        <v>-403295.266616776</v>
+        <v>-416597.1838247577</v>
       </c>
       <c r="G6">
-        <v>-1558548.06973932</v>
+        <v>-1609953.77445351</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -853,22 +820,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>238599.3533191565</v>
+        <v>246469.0932006944</v>
       </c>
       <c r="C7">
-        <v>-49539.9554744068</v>
+        <v>-51173.93544083639</v>
       </c>
       <c r="D7">
-        <v>540951.5384932588</v>
+        <v>558793.7825615617</v>
       </c>
       <c r="E7">
-        <v>-178623.5595886583</v>
+        <v>-184515.1134890443</v>
       </c>
       <c r="F7">
-        <v>198640.1844231203</v>
+        <v>205191.9481210696</v>
       </c>
       <c r="G7">
-        <v>750027.5611724705</v>
+        <v>774765.774953445</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -876,22 +843,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>362317.5365216819</v>
+        <v>374267.8822677209</v>
       </c>
       <c r="C8">
-        <v>-701498.3342547512</v>
+        <v>-724635.9050030357</v>
       </c>
       <c r="D8">
-        <v>258099.5581676731</v>
+        <v>266612.4747286937</v>
       </c>
       <c r="E8">
-        <v>154017.5121101873</v>
+        <v>159097.4829510449</v>
       </c>
       <c r="F8">
-        <v>75004.22469517619</v>
+        <v>77478.09451148676</v>
       </c>
       <c r="G8">
-        <v>147940.4972399673</v>
+        <v>152820.0294559106</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -899,22 +866,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>-435482.3035741249</v>
+        <v>-449845.8481708153</v>
       </c>
       <c r="C9">
-        <v>-538490.2836377296</v>
+        <v>-556251.3479575302</v>
       </c>
       <c r="D9">
-        <v>-54293.33714111131</v>
+        <v>-56084.09824191594</v>
       </c>
       <c r="E9">
-        <v>-662602.9586307688</v>
+        <v>-684457.6403665839</v>
       </c>
       <c r="F9">
-        <v>182339.8434801944</v>
+        <v>188353.9718433587</v>
       </c>
       <c r="G9">
-        <v>-1508529.03950354</v>
+        <v>-1558284.962893487</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -922,22 +889,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-115179.4366493572</v>
+        <v>-118978.4084132079</v>
       </c>
       <c r="C10">
-        <v>1237207.823240214</v>
+        <v>1278014.739155364</v>
       </c>
       <c r="D10">
-        <v>-178238.5111268827</v>
+        <v>-184117.3649457565</v>
       </c>
       <c r="E10">
-        <v>-666993.6467785512</v>
+        <v>-688993.1469019405</v>
       </c>
       <c r="F10">
-        <v>319592.4754321621</v>
+        <v>330133.617370563</v>
       </c>
       <c r="G10">
-        <v>596388.7041175854</v>
+        <v>616059.4362650225</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -945,22 +912,22 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>253831.1901249512</v>
+        <v>262203.3227913483</v>
       </c>
       <c r="C11">
-        <v>149031.3929520826</v>
+        <v>153946.9062609025</v>
       </c>
       <c r="D11">
-        <v>-108103.0068714593</v>
+        <v>-111668.576235566</v>
       </c>
       <c r="E11">
-        <v>303833.7555946169</v>
+        <v>313855.1265266746</v>
       </c>
       <c r="F11">
-        <v>253716.9925876578</v>
+        <v>262085.3586683492</v>
       </c>
       <c r="G11">
-        <v>852310.3243878493</v>
+        <v>880422.1380117086</v>
       </c>
     </row>
   </sheetData>
@@ -970,266 +937,263 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>-834905.5800100034</v>
+        <v>-852308.7879563562</v>
       </c>
       <c r="C2">
-        <v>-96638.11882486177</v>
+        <v>-404244.1004487843</v>
       </c>
       <c r="D2">
-        <v>136306.040055746</v>
+        <v>-38846.01811432492</v>
+      </c>
+      <c r="E2">
+        <v>-284396.4914410128</v>
       </c>
       <c r="F2">
-        <v>-368320.6923992202</v>
+        <v>-135999.9018575622</v>
       </c>
       <c r="G2">
-        <v>-1133851.077869555</v>
-      </c>
-      <c r="H2">
-        <v>-197360.3966912157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>-1715795.29981804</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="2">
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>-1802583.574924379</v>
+        <v>-1849140.655102996</v>
       </c>
       <c r="C3">
-        <v>-108287.4915913632</v>
+        <v>16982.81442424294</v>
       </c>
       <c r="D3">
-        <v>-634786.8284825821</v>
+        <v>-1175401.064581722</v>
+      </c>
+      <c r="E3">
+        <v>-15990.39784201001</v>
       </c>
       <c r="F3">
-        <v>36320.20946311596</v>
+        <v>-114249.693984564</v>
       </c>
       <c r="G3">
-        <v>-2490952.224233206</v>
-      </c>
-      <c r="H3">
-        <v>-41663.55869799796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>-3137798.997087048</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>1428729.447768387</v>
+        <v>1420755.087623449</v>
       </c>
       <c r="C4">
-        <v>38886.32209041613</v>
+        <v>-32513.0057604812</v>
       </c>
       <c r="D4">
-        <v>81268.9844643893</v>
+        <v>310963.8506394636</v>
+      </c>
+      <c r="E4">
+        <v>-27928.07244519035</v>
       </c>
       <c r="F4">
-        <v>-34169.76581692754</v>
+        <v>23107.97562803054</v>
       </c>
       <c r="G4">
-        <v>1564427.394334218</v>
-      </c>
-      <c r="H4">
-        <v>-60114.18417204703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>1694385.835685271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>-445338.9314425653</v>
+        <v>-491944.5652266475</v>
       </c>
       <c r="C5">
-        <v>-96518.3777150197</v>
+        <v>1348.230691295399</v>
       </c>
       <c r="D5">
-        <v>-135231.9970784801</v>
+        <v>-457596.5365404155</v>
+      </c>
+      <c r="E5">
+        <v>-60178.09834936814</v>
       </c>
       <c r="F5">
-        <v>12760.77846966924</v>
+        <v>-75271.44919209815</v>
       </c>
       <c r="G5">
-        <v>-740249.6629469013</v>
-      </c>
-      <c r="H5">
-        <v>-101962.8051805053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>-1083642.418617234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="2">
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>322473.4945902534</v>
+        <v>280971.9584354972</v>
       </c>
       <c r="C6">
-        <v>206574.176616776</v>
+        <v>8321.635123496613</v>
       </c>
       <c r="D6">
-        <v>381167.0477294096</v>
+        <v>681333.7475173534</v>
+      </c>
+      <c r="E6">
+        <v>34256.41955240458</v>
       </c>
       <c r="F6">
-        <v>23268.86390733265</v>
+        <v>183109.9738247577</v>
       </c>
       <c r="G6">
-        <v>1280389.72973932</v>
-      </c>
-      <c r="H6">
-        <v>42337.61689554868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>1187993.73445351</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="2">
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>-290521.9633191565</v>
+        <v>-356639.6432006945</v>
       </c>
       <c r="C7">
-        <v>-115440.8644231203</v>
+        <v>-4669.944559163603</v>
       </c>
       <c r="D7">
-        <v>-302183.3484932588</v>
+        <v>-703338.1925615617</v>
+      </c>
+      <c r="E7">
+        <v>12460.51348904433</v>
       </c>
       <c r="F7">
-        <v>3692.115474406804</v>
+        <v>-86853.59812106955</v>
       </c>
       <c r="G7">
-        <v>-811922.8111724705</v>
-      </c>
-      <c r="H7">
-        <v>5371.719588658307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>-1139040.864953445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="2">
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>-438342.5665216818</v>
+        <v>-485835.8122677209</v>
       </c>
       <c r="C8">
-        <v>-90399.9646951762</v>
+        <v>164478.2650030357</v>
       </c>
       <c r="D8">
-        <v>108635.0618323269</v>
+        <v>-82943.82472869373</v>
+      </c>
+      <c r="E8">
+        <v>-40623.65295104486</v>
       </c>
       <c r="F8">
-        <v>155968.1542547512</v>
+        <v>-71606.49451148676</v>
       </c>
       <c r="G8">
-        <v>-482711.8472399674</v>
-      </c>
-      <c r="H8">
-        <v>-78221.65211018732</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>-516531.5194559107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="2">
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>528499.6335741249</v>
+        <v>491686.1781708153</v>
       </c>
       <c r="C9">
-        <v>-113332.5434801944</v>
+        <v>255102.8179575301</v>
       </c>
       <c r="D9">
-        <v>109021.2371411113</v>
+        <v>296344.0982419159</v>
+      </c>
+      <c r="E9">
+        <v>137455.7303665839</v>
       </c>
       <c r="F9">
-        <v>219160.2736377296</v>
+        <v>-85428.49184335866</v>
       </c>
       <c r="G9">
-        <v>1120945.73950354</v>
-      </c>
-      <c r="H9">
-        <v>209229.7886307688</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>1095160.332893487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="2">
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>67063.91664935715</v>
+        <v>29643.29841320793</v>
       </c>
       <c r="C10">
-        <v>-121415.8354321621</v>
+        <v>-453434.0191553643</v>
       </c>
       <c r="D10">
-        <v>100071.4111268827</v>
+        <v>318083.9149457564</v>
+      </c>
+      <c r="E10">
+        <v>138941.6069019404</v>
       </c>
       <c r="F10">
-        <v>-415584.0732402145</v>
+        <v>-95253.96737056304</v>
       </c>
       <c r="G10">
-        <v>-258801.4541175854</v>
-      </c>
-      <c r="H10">
-        <v>211499.8067785511</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>-62019.16626502259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="2">
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>-310431.9301249512</v>
+        <v>-374123.9427913483</v>
       </c>
       <c r="C11">
-        <v>-120148.5125876578</v>
+        <v>17979.5637390975</v>
       </c>
       <c r="D11">
-        <v>86355.07687145931</v>
+        <v>309018.1962355659</v>
+      </c>
+      <c r="E11">
+        <v>-61016.7765266746</v>
       </c>
       <c r="F11">
-        <v>37822.19704791735</v>
+        <v>-90939.25866834918</v>
       </c>
       <c r="G11">
-        <v>-448092.0643878493</v>
-      </c>
-      <c r="H11">
-        <v>-102853.9455946169</v>
+        <v>-199082.2180117086</v>
       </c>
     </row>
   </sheetData>
@@ -1247,25 +1211,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1273,22 +1237,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>44.45595854922279</v>
+        <v>45.80310880829015</v>
       </c>
       <c r="C2">
         <v>49.08270676691729</v>
       </c>
       <c r="D2">
-        <v>82.7208419599724</v>
+        <v>81.90476190476191</v>
       </c>
       <c r="E2">
-        <v>75.44538092701119</v>
+        <v>79.5021736814065</v>
       </c>
       <c r="F2">
-        <v>55.97711827956989</v>
+        <v>59.77488172043011</v>
       </c>
       <c r="G2">
-        <v>49.9039175257732</v>
+        <v>49.1307933662035</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1296,22 +1260,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>64.73076923076923</v>
+        <v>66.69230769230769</v>
       </c>
       <c r="C3">
         <v>42.40196078431373</v>
       </c>
       <c r="D3">
-        <v>58.94806201550388</v>
+        <v>58.36651162790698</v>
       </c>
       <c r="E3">
-        <v>89.40619047619047</v>
+        <v>94.21367346938776</v>
       </c>
       <c r="F3">
-        <v>34.89088948787062</v>
+        <v>37.25805929919137</v>
       </c>
       <c r="G3">
-        <v>48.21964054636953</v>
+        <v>47.4726096333573</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1319,22 +1283,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>19.73529411764706</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="C4">
         <v>44.39306358381502</v>
       </c>
       <c r="D4">
-        <v>62.04435483870969</v>
+        <v>61.43225806451614</v>
       </c>
       <c r="E4">
-        <v>65.46471204188481</v>
+        <v>68.98483171278983</v>
       </c>
       <c r="F4">
-        <v>36.01641734417344</v>
+        <v>38.4599485094851</v>
       </c>
       <c r="G4">
-        <v>36.90388424821002</v>
+        <v>36.3321599045346</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1342,22 +1306,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>37.97704918032787</v>
+        <v>39.12786885245902</v>
       </c>
       <c r="C5">
         <v>41.04166666666667</v>
       </c>
       <c r="D5">
-        <v>55.82345191040842</v>
+        <v>55.27272727272727</v>
       </c>
       <c r="E5">
-        <v>81.03567610062895</v>
+        <v>85.39306603773586</v>
       </c>
       <c r="F5">
-        <v>39.34867625709384</v>
+        <v>42.01828428137786</v>
       </c>
       <c r="G5">
-        <v>41.6125137495956</v>
+        <v>40.96784212229052</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1365,22 +1329,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>28.91025641025641</v>
+        <v>29.78632478632479</v>
       </c>
       <c r="C6">
         <v>52.18274111675127</v>
       </c>
       <c r="D6">
-        <v>57.2171052631579</v>
+        <v>56.65263157894738</v>
       </c>
       <c r="E6">
-        <v>51.08690809968848</v>
+        <v>53.83391522029373</v>
       </c>
       <c r="F6">
-        <v>30.96896576067773</v>
+        <v>33.07005294740558</v>
       </c>
       <c r="G6">
-        <v>33.4205600497822</v>
+        <v>32.90280024891101</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1388,22 +1352,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>36.21951219512195</v>
+        <v>37.31707317073171</v>
       </c>
       <c r="C7">
         <v>35.4863813229572</v>
       </c>
       <c r="D7">
-        <v>54.62070512820513</v>
+        <v>54.08184615384616</v>
       </c>
       <c r="E7">
-        <v>84.03007492881761</v>
+        <v>88.54847744642589</v>
       </c>
       <c r="F7">
-        <v>32.51784619485539</v>
+        <v>34.72401705984273</v>
       </c>
       <c r="G7">
-        <v>43.27050670640835</v>
+        <v>42.60014903129657</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1411,22 +1375,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>37.88888888888889</v>
+        <v>39.03703703703704</v>
       </c>
       <c r="C8">
         <v>34.3859649122807</v>
       </c>
       <c r="D8">
-        <v>39.75889819419</v>
+        <v>39.36665794294687</v>
       </c>
       <c r="E8">
-        <v>76.07182353663028</v>
+        <v>80.16230089581546</v>
       </c>
       <c r="F8">
-        <v>37.28920776419842</v>
+        <v>39.81909130122214</v>
       </c>
       <c r="G8">
-        <v>41.24735354927637</v>
+        <v>40.60833907649897</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1434,22 +1398,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>27.12387096774194</v>
+        <v>27.94580645161291</v>
       </c>
       <c r="C9">
         <v>46.73469387755102</v>
       </c>
       <c r="D9">
-        <v>43.47477064220183</v>
+        <v>43.04587155963303</v>
       </c>
       <c r="E9">
-        <v>67.28241647241647</v>
+        <v>70.9002763902764</v>
       </c>
       <c r="F9">
-        <v>25.57570674962802</v>
+        <v>27.31088867847964</v>
       </c>
       <c r="G9">
-        <v>43.00377131394183</v>
+        <v>42.33754597124707</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1457,22 +1421,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>31.44583987441131</v>
+        <v>32.39874411302983</v>
       </c>
       <c r="C10">
         <v>35.9825327510917</v>
       </c>
       <c r="D10">
-        <v>83.95294117647059</v>
+        <v>83.12470588235294</v>
       </c>
       <c r="E10">
-        <v>63.79512657509365</v>
+        <v>67.22547054149166</v>
       </c>
       <c r="F10">
-        <v>25.51272727272727</v>
+        <v>27.24363636363637</v>
       </c>
       <c r="G10">
-        <v>45.24974486621034</v>
+        <v>44.54872433105165</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1480,22 +1444,22 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>36.42504118616145</v>
+        <v>37.52883031301483</v>
       </c>
       <c r="C11">
         <v>38.44660194174757</v>
       </c>
       <c r="D11">
-        <v>59.147265625</v>
+        <v>58.56375000000001</v>
       </c>
       <c r="E11">
-        <v>65.76844128811069</v>
+        <v>69.30489286151587</v>
       </c>
       <c r="F11">
-        <v>39.43815306122448</v>
+        <v>42.11383163265306</v>
       </c>
       <c r="G11">
-        <v>44.17177215189873</v>
+        <v>43.48745184369839</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1503,22 +1467,22 @@
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>33.24626865671642</v>
+        <v>34.25373134328358</v>
       </c>
       <c r="C12">
         <v>36.96969696969697</v>
       </c>
       <c r="D12">
-        <v>47.90887334315169</v>
+        <v>47.43622974963181</v>
       </c>
       <c r="E12">
-        <v>53.4013553676659</v>
+        <v>56.27281322059954</v>
       </c>
       <c r="F12">
-        <v>29.77063762196505</v>
+        <v>31.7904243249376</v>
       </c>
       <c r="G12">
-        <v>38.16417352281227</v>
+        <v>37.57292445774121</v>
       </c>
     </row>
   </sheetData>
@@ -1536,25 +1500,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1562,22 +1526,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>11.45595854922279</v>
+        <v>11.80310880829015</v>
       </c>
       <c r="C2">
         <v>9.082706766917291</v>
       </c>
       <c r="D2">
-        <v>26.9708419599724</v>
+        <v>26.70476190476191</v>
       </c>
       <c r="E2">
-        <v>6.635380927011184</v>
+        <v>6.992173681406499</v>
       </c>
       <c r="F2">
-        <v>20.8971182795699</v>
+        <v>22.31488172043011</v>
       </c>
       <c r="G2">
-        <v>9.883917525773199</v>
+        <v>9.7307933662035</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1585,22 +1549,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>31.73076923076923</v>
+        <v>32.69230769230769</v>
       </c>
       <c r="C3">
         <v>2.401960784313729</v>
       </c>
       <c r="D3">
-        <v>3.198062015503879</v>
+        <v>3.166511627906978</v>
       </c>
       <c r="E3">
-        <v>20.59619047619047</v>
+        <v>21.70367346938775</v>
       </c>
       <c r="F3">
-        <v>-0.1891105121293819</v>
+        <v>-0.2019407008086276</v>
       </c>
       <c r="G3">
-        <v>8.199640546369523</v>
+        <v>8.072609633357303</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1608,22 +1572,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>-13.26470588235294</v>
+        <v>-13.66666666666667</v>
       </c>
       <c r="C4">
         <v>4.393063583815021</v>
       </c>
       <c r="D4">
-        <v>6.294354838709687</v>
+        <v>6.232258064516138</v>
       </c>
       <c r="E4">
-        <v>-3.345287958115193</v>
+        <v>-3.525168287210178</v>
       </c>
       <c r="F4">
-        <v>0.9364173441734422</v>
+        <v>0.9999485094851011</v>
       </c>
       <c r="G4">
-        <v>-3.116115751789984</v>
+        <v>-3.067840095465399</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1631,22 +1595,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>4.977049180327874</v>
+        <v>5.127868852459024</v>
       </c>
       <c r="C5">
         <v>1.041666666666671</v>
       </c>
       <c r="D5">
-        <v>0.0734519104084228</v>
+        <v>0.07272727272726343</v>
       </c>
       <c r="E5">
-        <v>12.22567610062895</v>
+        <v>12.88306603773586</v>
       </c>
       <c r="F5">
-        <v>4.268676257093837</v>
+        <v>4.558284281377858</v>
       </c>
       <c r="G5">
-        <v>1.592513749595597</v>
+        <v>1.567842122290521</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1654,22 +1618,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-4.089743589743591</v>
+        <v>-4.213675213675213</v>
       </c>
       <c r="C6">
         <v>12.18274111675127</v>
       </c>
       <c r="D6">
-        <v>1.467105263157897</v>
+        <v>1.452631578947376</v>
       </c>
       <c r="E6">
-        <v>-17.72309190031152</v>
+        <v>-18.67608477970627</v>
       </c>
       <c r="F6">
-        <v>-4.111034239322272</v>
+        <v>-4.389947052594422</v>
       </c>
       <c r="G6">
-        <v>-6.5994399502178</v>
+        <v>-6.497199751088985</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1677,22 +1641,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>3.219512195121951</v>
+        <v>3.31707317073171</v>
       </c>
       <c r="C7">
         <v>-4.5136186770428</v>
       </c>
       <c r="D7">
-        <v>-1.129294871794869</v>
+        <v>-1.118153846153845</v>
       </c>
       <c r="E7">
-        <v>15.22007492881761</v>
+        <v>16.03847744642589</v>
       </c>
       <c r="F7">
-        <v>-2.562153805144611</v>
+        <v>-2.735982940157271</v>
       </c>
       <c r="G7">
-        <v>3.250506706408345</v>
+        <v>3.200149031296569</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1700,22 +1664,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>4.888888888888886</v>
+        <v>5.037037037037038</v>
       </c>
       <c r="C8">
         <v>-5.614035087719301</v>
       </c>
       <c r="D8">
-        <v>-15.99110180581</v>
+        <v>-15.83334205705313</v>
       </c>
       <c r="E8">
-        <v>7.261823536630274</v>
+        <v>7.652300895815458</v>
       </c>
       <c r="F8">
-        <v>2.209207764198418</v>
+        <v>2.359091301222143</v>
       </c>
       <c r="G8">
-        <v>1.227353549276366</v>
+        <v>1.208339076498973</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1723,22 +1687,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>-5.876129032258063</v>
+        <v>-6.054193548387094</v>
       </c>
       <c r="C9">
         <v>6.734693877551017</v>
       </c>
       <c r="D9">
-        <v>-12.27522935779817</v>
+        <v>-12.15412844036697</v>
       </c>
       <c r="E9">
-        <v>-1.527583527583531</v>
+        <v>-1.609723609723602</v>
       </c>
       <c r="F9">
-        <v>-9.504293250371976</v>
+        <v>-10.14911132152036</v>
       </c>
       <c r="G9">
-        <v>2.983771313941823</v>
+        <v>2.937545971247069</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1746,22 +1710,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-1.554160125588695</v>
+        <v>-1.601255886970172</v>
       </c>
       <c r="C10">
         <v>-4.017467248908297</v>
       </c>
       <c r="D10">
-        <v>28.20294117647059</v>
+        <v>27.92470588235294</v>
       </c>
       <c r="E10">
-        <v>-5.014873424906348</v>
+        <v>-5.284529458508345</v>
       </c>
       <c r="F10">
-        <v>-9.567272727272726</v>
+        <v>-10.21636363636363</v>
       </c>
       <c r="G10">
-        <v>5.229744866210332</v>
+        <v>5.148724331051653</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1769,22 +1733,22 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>3.425041186161451</v>
+        <v>3.528830313014829</v>
       </c>
       <c r="C11">
         <v>-1.553398058252426</v>
       </c>
       <c r="D11">
-        <v>3.397265625000003</v>
+        <v>3.363750000000003</v>
       </c>
       <c r="E11">
-        <v>-3.041558711889309</v>
+        <v>-3.205107138484138</v>
       </c>
       <c r="F11">
-        <v>4.358153061224485</v>
+        <v>4.653831632653059</v>
       </c>
       <c r="G11">
-        <v>4.151772151898726</v>
+        <v>4.087451843698396</v>
       </c>
     </row>
   </sheetData>

--- a/3m_portfolio_returns.xlsx
+++ b/3m_portfolio_returns.xlsx
@@ -8,17 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="current_portfolio" sheetId="1" r:id="rId1"/>
-    <sheet name="beta_portfolio" sheetId="2" r:id="rId2"/>
-    <sheet name="alpha" sheetId="3" r:id="rId3"/>
-    <sheet name="portfolio_prices" sheetId="4" r:id="rId4"/>
-    <sheet name="beta_price_moves" sheetId="5" r:id="rId5"/>
+    <sheet name="Sigma Moves PnL" sheetId="2" r:id="rId2"/>
+    <sheet name="beta_portfolio" sheetId="3" r:id="rId3"/>
+    <sheet name="alpha" sheetId="4" r:id="rId4"/>
+    <sheet name="portfolio_prices" sheetId="5" r:id="rId5"/>
+    <sheet name="beta_price_moves" sheetId="6" r:id="rId6"/>
+    <sheet name="5 day standard deviations" sheetId="7" r:id="rId7"/>
+    <sheet name="30 day standard deviations" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="18">
   <si>
     <t>ACCU</t>
   </si>
@@ -41,7 +44,37 @@
     <t>Date</t>
   </si>
   <si>
+    <t>-99%</t>
+  </si>
+  <si>
+    <t>-2 sig</t>
+  </si>
+  <si>
+    <t>-1 sig</t>
+  </si>
+  <si>
+    <t>1 sig</t>
+  </si>
+  <si>
+    <t>2 sig</t>
+  </si>
+  <si>
+    <t>+99%</t>
+  </si>
+  <si>
     <t>LGC</t>
+  </si>
+  <si>
+    <t>Mkt</t>
+  </si>
+  <si>
+    <t>TwoSigma</t>
+  </si>
+  <si>
+    <t>OnePointFive</t>
+  </si>
+  <si>
+    <t>OneSigma</t>
   </si>
 </sst>
 </file>
@@ -439,22 +472,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>24699.76</v>
+        <v>538972.21</v>
       </c>
       <c r="C2">
-        <v>817938.13</v>
+        <v>1433667.91</v>
       </c>
       <c r="D2">
-        <v>204767.08</v>
+        <v>-19225.44</v>
       </c>
       <c r="E2">
-        <v>1220522.59</v>
+        <v>455715.55</v>
       </c>
       <c r="F2">
-        <v>487933.68</v>
+        <v>625734.88</v>
       </c>
       <c r="G2">
-        <v>2755861.24</v>
+        <v>3034865.11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -462,22 +495,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>580001.85</v>
+        <v>2256649.76</v>
       </c>
       <c r="C3">
-        <v>161902.82</v>
+        <v>17565.21</v>
       </c>
       <c r="D3">
-        <v>-419227.18</v>
+        <v>-335129.42</v>
       </c>
       <c r="E3">
-        <v>-29609.31</v>
+        <v>41805.74</v>
       </c>
       <c r="F3">
-        <v>403361.98</v>
+        <v>484798.96</v>
       </c>
       <c r="G3">
-        <v>696430.1599999999</v>
+        <v>2465690.25</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -485,22 +518,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>405278.26</v>
+        <v>1059336.21</v>
       </c>
       <c r="C4">
-        <v>252715.34</v>
+        <v>119729.22</v>
       </c>
       <c r="D4">
-        <v>188144.08</v>
+        <v>192542</v>
       </c>
       <c r="E4">
-        <v>39508.61</v>
+        <v>85020.08</v>
       </c>
       <c r="F4">
-        <v>-173600.39</v>
+        <v>-208992.23</v>
       </c>
       <c r="G4">
-        <v>712045.8999999999</v>
+        <v>1247635.28</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -508,22 +541,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>-110927.59</v>
+        <v>2262.42</v>
       </c>
       <c r="C5">
-        <v>4676.7</v>
+        <v>-69875.3</v>
       </c>
       <c r="D5">
-        <v>-8739.889999999999</v>
+        <v>-142313.76</v>
       </c>
       <c r="E5">
-        <v>247233.3</v>
+        <v>199248.44</v>
       </c>
       <c r="F5">
-        <v>25257.8</v>
+        <v>-70921.57000000001</v>
       </c>
       <c r="G5">
-        <v>157500.32</v>
+        <v>-81599.77000000002</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -531,22 +564,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-32117.52</v>
+        <v>80121.94</v>
       </c>
       <c r="C6">
-        <v>74803.42999999999</v>
+        <v>-32176.86</v>
       </c>
       <c r="D6">
-        <v>30643.55</v>
+        <v>56468.54</v>
       </c>
       <c r="E6">
-        <v>-261802.29</v>
+        <v>-118452.3</v>
       </c>
       <c r="F6">
-        <v>-233487.21</v>
+        <v>-263612.64</v>
       </c>
       <c r="G6">
-        <v>-421960.04</v>
+        <v>-277651.32</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -554,22 +587,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>-110170.55</v>
+        <v>-138538.42</v>
       </c>
       <c r="C7">
-        <v>-55843.88</v>
+        <v>-101346.26</v>
       </c>
       <c r="D7">
-        <v>-144544.41</v>
+        <v>-209504.92</v>
       </c>
       <c r="E7">
-        <v>-172054.6</v>
+        <v>-54290.28</v>
       </c>
       <c r="F7">
-        <v>118338.35</v>
+        <v>94140.78999999999</v>
       </c>
       <c r="G7">
-        <v>-364275.09</v>
+        <v>-409539.09</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -577,22 +610,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>-111567.93</v>
+        <v>-4871.77</v>
       </c>
       <c r="C8">
-        <v>-560157.64</v>
+        <v>-841909.36</v>
       </c>
       <c r="D8">
-        <v>183668.65</v>
+        <v>-33060.85</v>
       </c>
       <c r="E8">
-        <v>118473.83</v>
+        <v>131279.69</v>
       </c>
       <c r="F8">
-        <v>5871.6</v>
+        <v>-31952.15</v>
       </c>
       <c r="G8">
-        <v>-363711.49</v>
+        <v>-780514.4400000001</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -600,22 +633,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>41840.33</v>
+        <v>249703.53</v>
       </c>
       <c r="C9">
-        <v>-301148.53</v>
+        <v>-597189.0600000001</v>
       </c>
       <c r="D9">
-        <v>240260</v>
+        <v>169735.87</v>
       </c>
       <c r="E9">
-        <v>-547001.91</v>
+        <v>-318478.99</v>
       </c>
       <c r="F9">
-        <v>102925.48</v>
+        <v>81430.37</v>
       </c>
       <c r="G9">
-        <v>-463124.6300000001</v>
+        <v>-414798.28</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -623,22 +656,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-89335.11</v>
+        <v>-144052.15</v>
       </c>
       <c r="C10">
-        <v>824580.72</v>
+        <v>1536900.52</v>
       </c>
       <c r="D10">
-        <v>133966.55</v>
+        <v>184872.78</v>
       </c>
       <c r="E10">
-        <v>-550051.54</v>
+        <v>-320373.2</v>
       </c>
       <c r="F10">
-        <v>234879.65</v>
+        <v>233838.31</v>
       </c>
       <c r="G10">
-        <v>554040.2699999999</v>
+        <v>1491186.26</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -646,22 +679,22 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>-111920.62</v>
+        <v>-122242.47</v>
       </c>
       <c r="C11">
-        <v>171926.47</v>
+        <v>23565.69</v>
       </c>
       <c r="D11">
-        <v>197349.62</v>
+        <v>191205.1</v>
       </c>
       <c r="E11">
-        <v>252838.35</v>
+        <v>201994.76</v>
       </c>
       <c r="F11">
-        <v>171146.1</v>
+        <v>158351.15</v>
       </c>
       <c r="G11">
-        <v>681339.92</v>
+        <v>452874.23</v>
       </c>
     </row>
   </sheetData>
@@ -671,16 +704,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -701,233 +731,141 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>44469</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>877008.5479563562</v>
+        <v>-144052.15</v>
       </c>
       <c r="C2">
-        <v>1222182.230448784</v>
+        <v>-841909.36</v>
       </c>
       <c r="D2">
-        <v>243613.0981143249</v>
+        <v>-335129.42</v>
       </c>
       <c r="E2">
-        <v>1504919.081441013</v>
+        <v>-320373.2</v>
       </c>
       <c r="F2">
-        <v>623933.5818575622</v>
+        <v>-263612.64</v>
       </c>
       <c r="G2">
-        <v>4471656.53981804</v>
+        <v>-780514.4400000001</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>44561</v>
+      <c r="A3" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>2429142.505102996</v>
+        <v>-144052.15</v>
       </c>
       <c r="C3">
-        <v>144920.0055757571</v>
+        <v>-841909.36</v>
       </c>
       <c r="D3">
-        <v>756173.8845817216</v>
+        <v>-335129.42</v>
       </c>
       <c r="E3">
-        <v>-13618.91215798999</v>
+        <v>-320373.2</v>
       </c>
       <c r="F3">
-        <v>517611.673984564</v>
+        <v>-263612.64</v>
       </c>
       <c r="G3">
-        <v>3834229.157087049</v>
+        <v>-780514.4400000001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>44651</v>
+      <c r="A4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-1015476.827623449</v>
+        <v>-4871.77</v>
       </c>
       <c r="C4">
-        <v>285228.3457604812</v>
+        <v>-69875.3</v>
       </c>
       <c r="D4">
-        <v>-122819.7706394636</v>
+        <v>-33060.85</v>
       </c>
       <c r="E4">
-        <v>67436.68244519035</v>
+        <v>-54290.28</v>
       </c>
       <c r="F4">
-        <v>-196708.3656280306</v>
+        <v>-31952.15</v>
       </c>
       <c r="G4">
-        <v>-982339.9356852712</v>
+        <v>-277651.32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>44742</v>
+      <c r="A5" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>381016.9752266475</v>
+        <v>249703.53</v>
       </c>
       <c r="C5">
-        <v>3328.469308704601</v>
+        <v>23565.69</v>
       </c>
       <c r="D5">
-        <v>448856.6465404155</v>
+        <v>169735.87</v>
       </c>
       <c r="E5">
-        <v>307411.3983493681</v>
+        <v>131279.69</v>
       </c>
       <c r="F5">
-        <v>100529.2491920982</v>
+        <v>158351.15</v>
       </c>
       <c r="G5">
-        <v>1241142.738617234</v>
+        <v>1247635.28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>44834</v>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-313089.4784354972</v>
+        <v>2256649.76</v>
       </c>
       <c r="C6">
-        <v>66481.79487650338</v>
+        <v>1536900.52</v>
       </c>
       <c r="D6">
-        <v>-650690.1975173533</v>
+        <v>192542</v>
       </c>
       <c r="E6">
-        <v>-296058.7095524046</v>
+        <v>455715.55</v>
       </c>
       <c r="F6">
-        <v>-416597.1838247577</v>
+        <v>625734.88</v>
       </c>
       <c r="G6">
-        <v>-1609953.77445351</v>
+        <v>3034865.11</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>44925</v>
+      <c r="A7" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>246469.0932006944</v>
+        <v>2256649.76</v>
       </c>
       <c r="C7">
-        <v>-51173.93544083639</v>
+        <v>1536900.52</v>
       </c>
       <c r="D7">
-        <v>558793.7825615617</v>
+        <v>192542</v>
       </c>
       <c r="E7">
-        <v>-184515.1134890443</v>
+        <v>455715.55</v>
       </c>
       <c r="F7">
-        <v>205191.9481210696</v>
+        <v>625734.88</v>
       </c>
       <c r="G7">
-        <v>774765.774953445</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>45016</v>
-      </c>
-      <c r="B8">
-        <v>374267.8822677209</v>
-      </c>
-      <c r="C8">
-        <v>-724635.9050030357</v>
-      </c>
-      <c r="D8">
-        <v>266612.4747286937</v>
-      </c>
-      <c r="E8">
-        <v>159097.4829510449</v>
-      </c>
-      <c r="F8">
-        <v>77478.09451148676</v>
-      </c>
-      <c r="G8">
-        <v>152820.0294559106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>45107</v>
-      </c>
-      <c r="B9">
-        <v>-449845.8481708153</v>
-      </c>
-      <c r="C9">
-        <v>-556251.3479575302</v>
-      </c>
-      <c r="D9">
-        <v>-56084.09824191594</v>
-      </c>
-      <c r="E9">
-        <v>-684457.6403665839</v>
-      </c>
-      <c r="F9">
-        <v>188353.9718433587</v>
-      </c>
-      <c r="G9">
-        <v>-1558284.962893487</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
-        <v>45198</v>
-      </c>
-      <c r="B10">
-        <v>-118978.4084132079</v>
-      </c>
-      <c r="C10">
-        <v>1278014.739155364</v>
-      </c>
-      <c r="D10">
-        <v>-184117.3649457565</v>
-      </c>
-      <c r="E10">
-        <v>-688993.1469019405</v>
-      </c>
-      <c r="F10">
-        <v>330133.617370563</v>
-      </c>
-      <c r="G10">
-        <v>616059.4362650225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>45289</v>
-      </c>
-      <c r="B11">
-        <v>262203.3227913483</v>
-      </c>
-      <c r="C11">
-        <v>153946.9062609025</v>
-      </c>
-      <c r="D11">
-        <v>-111668.576235566</v>
-      </c>
-      <c r="E11">
-        <v>313855.1265266746</v>
-      </c>
-      <c r="F11">
-        <v>262085.3586683492</v>
-      </c>
-      <c r="G11">
-        <v>880422.1380117086</v>
+        <v>3034865.11</v>
       </c>
     </row>
   </sheetData>
@@ -971,22 +909,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>-852308.7879563562</v>
+        <v>911766.4140434922</v>
       </c>
       <c r="C2">
-        <v>-404244.1004487843</v>
+        <v>1270620.12355599</v>
       </c>
       <c r="D2">
-        <v>-38846.01811432492</v>
+        <v>253268.0455616006</v>
       </c>
       <c r="E2">
-        <v>-284396.4914410128</v>
+        <v>1564562.486316134</v>
       </c>
       <c r="F2">
-        <v>-135999.9018575622</v>
+        <v>648661.5049046151</v>
       </c>
       <c r="G2">
-        <v>-1715795.29981804</v>
+        <v>4648878.574381832</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -994,22 +932,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>-1849140.655102996</v>
+        <v>2525415.010195092</v>
       </c>
       <c r="C3">
-        <v>16982.81442424294</v>
+        <v>150663.5187477629</v>
       </c>
       <c r="D3">
-        <v>-1175401.064581722</v>
+        <v>786142.7950103905</v>
       </c>
       <c r="E3">
-        <v>-15990.39784201001</v>
+        <v>-14158.6609736009</v>
       </c>
       <c r="F3">
-        <v>-114249.693984564</v>
+        <v>538125.8152565246</v>
       </c>
       <c r="G3">
-        <v>-3137798.997087048</v>
+        <v>3986188.47823617</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1017,22 +955,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>1420755.087623449</v>
+        <v>-1055722.510144301</v>
       </c>
       <c r="C4">
-        <v>-32513.0057604812</v>
+        <v>296532.6011971016</v>
       </c>
       <c r="D4">
-        <v>310963.8506394636</v>
+        <v>-127687.4006650624</v>
       </c>
       <c r="E4">
-        <v>-27928.07244519035</v>
+        <v>70109.35329116133</v>
       </c>
       <c r="F4">
-        <v>23107.97562803054</v>
+        <v>-204504.3706346531</v>
       </c>
       <c r="G4">
-        <v>1694385.835685271</v>
+        <v>-1021272.326955754</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1040,22 +978,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>-491944.5652266475</v>
+        <v>396117.5543860112</v>
       </c>
       <c r="C5">
-        <v>1348.230691295399</v>
+        <v>3460.38420369235</v>
       </c>
       <c r="D5">
-        <v>-457596.5365404155</v>
+        <v>466645.8679215842</v>
       </c>
       <c r="E5">
-        <v>-60178.09834936814</v>
+        <v>319594.8191864683</v>
       </c>
       <c r="F5">
-        <v>-75271.44919209815</v>
+        <v>32288.70954477804</v>
       </c>
       <c r="G5">
-        <v>-1083642.418617234</v>
+        <v>1218107.335242534</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1063,22 +1001,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>280971.9584354972</v>
+        <v>-325497.9346473675</v>
       </c>
       <c r="C6">
-        <v>8321.635123496613</v>
+        <v>69116.62133165533</v>
       </c>
       <c r="D6">
-        <v>681333.7475173534</v>
+        <v>-676478.5467896864</v>
       </c>
       <c r="E6">
-        <v>34256.41955240458</v>
+        <v>-307792.1972185533</v>
       </c>
       <c r="F6">
-        <v>183109.9738247577</v>
+        <v>-373525.7483919106</v>
       </c>
       <c r="G6">
-        <v>1187993.73445351</v>
+        <v>-1614177.805715862</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1086,22 +1024,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>-356639.6432006945</v>
+        <v>256237.2303027217</v>
       </c>
       <c r="C7">
-        <v>-4669.944559163603</v>
+        <v>-53202.07621477654</v>
       </c>
       <c r="D7">
-        <v>-703338.1925615617</v>
+        <v>580940.0655252319</v>
       </c>
       <c r="E7">
-        <v>12460.51348904433</v>
+        <v>-191827.8718659721</v>
       </c>
       <c r="F7">
-        <v>-86853.59812106955</v>
+        <v>213324.1770161813</v>
       </c>
       <c r="G7">
-        <v>-1139040.864953445</v>
+        <v>805471.5247633861</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1109,22 +1047,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>-485835.8122677209</v>
+        <v>389100.9793485774</v>
       </c>
       <c r="C8">
-        <v>164478.2650030357</v>
+        <v>-753354.8927560259</v>
       </c>
       <c r="D8">
-        <v>-82943.82472869373</v>
+        <v>277178.9403753216</v>
       </c>
       <c r="E8">
-        <v>-40623.65295104486</v>
+        <v>165402.8821630581</v>
       </c>
       <c r="F8">
-        <v>-71606.49451148676</v>
+        <v>80548.72961531974</v>
       </c>
       <c r="G8">
-        <v>-516531.5194559107</v>
+        <v>158876.6387462509</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1132,22 +1070,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>491686.1781708153</v>
+        <v>-467674.2738879995</v>
       </c>
       <c r="C9">
-        <v>255102.8179575301</v>
+        <v>-578296.8683896285</v>
       </c>
       <c r="D9">
-        <v>296344.0982419159</v>
+        <v>-58306.8400622241</v>
       </c>
       <c r="E9">
-        <v>137455.7303665839</v>
+        <v>-711584.271072312</v>
       </c>
       <c r="F9">
-        <v>-85428.49184335866</v>
+        <v>201087.5422360626</v>
       </c>
       <c r="G9">
-        <v>1095160.332893487</v>
+        <v>-1614774.711176101</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1155,22 +1093,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>29643.29841320793</v>
+        <v>-123693.7964177189</v>
       </c>
       <c r="C10">
-        <v>-453434.0191553643</v>
+        <v>1328665.403010877</v>
       </c>
       <c r="D10">
-        <v>318083.9149457564</v>
+        <v>-191414.3596329959</v>
       </c>
       <c r="E10">
-        <v>138941.6069019404</v>
+        <v>-716299.5301644261</v>
       </c>
       <c r="F10">
-        <v>-95253.96737056304</v>
+        <v>337684.0642203725</v>
       </c>
       <c r="G10">
-        <v>-62019.16626502259</v>
+        <v>634941.7810161083</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1178,22 +1116,22 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>-374123.9427913483</v>
+        <v>272595.043604584</v>
       </c>
       <c r="C11">
-        <v>17979.5637390975</v>
+        <v>160048.1762711144</v>
       </c>
       <c r="D11">
-        <v>309018.1962355659</v>
+        <v>-116094.2587764961</v>
       </c>
       <c r="E11">
-        <v>-61016.7765266746</v>
+        <v>326293.9271335739</v>
       </c>
       <c r="F11">
-        <v>-90939.25866834918</v>
+        <v>272472.4042920443</v>
       </c>
       <c r="G11">
-        <v>-199082.2180117086</v>
+        <v>915315.2925248205</v>
       </c>
     </row>
   </sheetData>
@@ -1202,6 +1140,272 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B2">
+        <v>-372794.2040434922</v>
+      </c>
+      <c r="C2">
+        <v>163047.7864440095</v>
+      </c>
+      <c r="D2">
+        <v>-272493.4855616006</v>
+      </c>
+      <c r="E2">
+        <v>-1108846.936316134</v>
+      </c>
+      <c r="F2">
+        <v>-22926.62490461511</v>
+      </c>
+      <c r="G2">
+        <v>-1614013.464381832</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B3">
+        <v>-268765.2501950925</v>
+      </c>
+      <c r="C3">
+        <v>-133098.3087477629</v>
+      </c>
+      <c r="D3">
+        <v>-1121272.21501039</v>
+      </c>
+      <c r="E3">
+        <v>55964.4009736009</v>
+      </c>
+      <c r="F3">
+        <v>-53326.85525652458</v>
+      </c>
+      <c r="G3">
+        <v>-1520498.22823617</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2">
+        <v>44651</v>
+      </c>
+      <c r="B4">
+        <v>2115058.720144302</v>
+      </c>
+      <c r="C4">
+        <v>-176803.3811971016</v>
+      </c>
+      <c r="D4">
+        <v>320229.4006650624</v>
+      </c>
+      <c r="E4">
+        <v>14910.72670883867</v>
+      </c>
+      <c r="F4">
+        <v>-4487.859365346871</v>
+      </c>
+      <c r="G4">
+        <v>2268907.606955754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2">
+        <v>44742</v>
+      </c>
+      <c r="B5">
+        <v>-393855.1343860112</v>
+      </c>
+      <c r="C5">
+        <v>-73335.68420369235</v>
+      </c>
+      <c r="D5">
+        <v>-608959.6279215843</v>
+      </c>
+      <c r="E5">
+        <v>-120346.3791864683</v>
+      </c>
+      <c r="F5">
+        <v>-103210.2795447781</v>
+      </c>
+      <c r="G5">
+        <v>-1299707.105242534</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2">
+        <v>44834</v>
+      </c>
+      <c r="B6">
+        <v>405619.8746473675</v>
+      </c>
+      <c r="C6">
+        <v>-101293.4813316553</v>
+      </c>
+      <c r="D6">
+        <v>732947.0867896865</v>
+      </c>
+      <c r="E6">
+        <v>189339.8972185533</v>
+      </c>
+      <c r="F6">
+        <v>109913.1083919106</v>
+      </c>
+      <c r="G6">
+        <v>1336526.485715862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2">
+        <v>44925</v>
+      </c>
+      <c r="B7">
+        <v>-394775.6503027218</v>
+      </c>
+      <c r="C7">
+        <v>-48144.18378522345</v>
+      </c>
+      <c r="D7">
+        <v>-790444.9855252319</v>
+      </c>
+      <c r="E7">
+        <v>137537.5918659721</v>
+      </c>
+      <c r="F7">
+        <v>-119183.3870161813</v>
+      </c>
+      <c r="G7">
+        <v>-1215010.614763386</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B8">
+        <v>-393972.7493485774</v>
+      </c>
+      <c r="C8">
+        <v>-88554.4672439741</v>
+      </c>
+      <c r="D8">
+        <v>-310239.7903753216</v>
+      </c>
+      <c r="E8">
+        <v>-34123.19216305812</v>
+      </c>
+      <c r="F8">
+        <v>-112500.8796153197</v>
+      </c>
+      <c r="G8">
+        <v>-939391.0787462511</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B9">
+        <v>717377.8038879995</v>
+      </c>
+      <c r="C9">
+        <v>-18892.19161037158</v>
+      </c>
+      <c r="D9">
+        <v>228042.7100622241</v>
+      </c>
+      <c r="E9">
+        <v>393105.281072312</v>
+      </c>
+      <c r="F9">
+        <v>-119657.1722360626</v>
+      </c>
+      <c r="G9">
+        <v>1199976.431176101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B10">
+        <v>-20358.35358228105</v>
+      </c>
+      <c r="C10">
+        <v>208235.1169891232</v>
+      </c>
+      <c r="D10">
+        <v>376287.1396329958</v>
+      </c>
+      <c r="E10">
+        <v>395926.3301644261</v>
+      </c>
+      <c r="F10">
+        <v>-103845.7542203725</v>
+      </c>
+      <c r="G10">
+        <v>856244.4789838919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B11">
+        <v>-394837.513604584</v>
+      </c>
+      <c r="C11">
+        <v>-136482.4862711144</v>
+      </c>
+      <c r="D11">
+        <v>307299.3587764961</v>
+      </c>
+      <c r="E11">
+        <v>-124299.1671335739</v>
+      </c>
+      <c r="F11">
+        <v>-114121.2542920444</v>
+      </c>
+      <c r="G11">
+        <v>-462441.0625248206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G12"/>
   <sheetViews>
@@ -1217,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1237,22 +1441,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>45.80310880829015</v>
+        <v>46.13989637305699</v>
       </c>
       <c r="C2">
-        <v>49.08270676691729</v>
+        <v>47.2421052631579</v>
       </c>
       <c r="D2">
-        <v>81.90476190476191</v>
+        <v>75.45031055900621</v>
       </c>
       <c r="E2">
-        <v>79.5021736814065</v>
+        <v>74.46955780500799</v>
       </c>
       <c r="F2">
-        <v>59.77488172043011</v>
+        <v>75.85952688172043</v>
       </c>
       <c r="G2">
-        <v>49.1307933662035</v>
+        <v>45.73902285970417</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1260,22 +1464,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>66.69230769230769</v>
+        <v>67.18269230769231</v>
       </c>
       <c r="C3">
-        <v>42.40196078431373</v>
+        <v>40.81188725490196</v>
       </c>
       <c r="D3">
-        <v>58.36651162790698</v>
+        <v>53.76697674418605</v>
       </c>
       <c r="E3">
-        <v>94.21367346938776</v>
+        <v>88.24979591836734</v>
       </c>
       <c r="F3">
-        <v>37.25805929919137</v>
+        <v>47.28371967654986</v>
       </c>
       <c r="G3">
-        <v>47.4726096333573</v>
+        <v>44.19531272465852</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1283,22 +1487,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>20.33333333333333</v>
+        <v>20.4828431372549</v>
       </c>
       <c r="C4">
-        <v>44.39306358381502</v>
+        <v>42.72832369942196</v>
       </c>
       <c r="D4">
-        <v>61.43225806451614</v>
+        <v>56.59112903225807</v>
       </c>
       <c r="E4">
-        <v>68.98483171278983</v>
+        <v>64.61798055347793</v>
       </c>
       <c r="F4">
-        <v>38.4599485094851</v>
+        <v>48.8090216802168</v>
       </c>
       <c r="G4">
-        <v>36.3321599045346</v>
+        <v>33.82394988066825</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1306,22 +1510,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>39.12786885245902</v>
+        <v>39.41557377049181</v>
       </c>
       <c r="C5">
-        <v>41.04166666666667</v>
+        <v>39.50260416666667</v>
       </c>
       <c r="D5">
-        <v>55.27272727272727</v>
+        <v>50.91699604743082</v>
       </c>
       <c r="E5">
-        <v>85.39306603773586</v>
+        <v>79.98754716981134</v>
       </c>
       <c r="F5">
-        <v>42.01828428137786</v>
+        <v>53.32485944305134</v>
       </c>
       <c r="G5">
-        <v>40.96784212229052</v>
+        <v>37.1309349725008</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1329,22 +1533,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>29.78632478632479</v>
+        <v>30.00534188034188</v>
       </c>
       <c r="C6">
-        <v>52.18274111675127</v>
+        <v>50.2258883248731</v>
       </c>
       <c r="D6">
-        <v>56.65263157894738</v>
+        <v>52.18815789473685</v>
       </c>
       <c r="E6">
-        <v>53.83391522029373</v>
+        <v>50.42614152202938</v>
       </c>
       <c r="F6">
-        <v>33.07005294740558</v>
+        <v>41.96877515001765</v>
       </c>
       <c r="G6">
-        <v>32.90280024891101</v>
+        <v>31.4634451901566</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1352,22 +1556,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>37.31707317073171</v>
+        <v>37.59146341463415</v>
       </c>
       <c r="C7">
-        <v>35.4863813229572</v>
+        <v>34.1556420233463</v>
       </c>
       <c r="D7">
-        <v>54.08184615384616</v>
+        <v>49.81996153846154</v>
       </c>
       <c r="E7">
-        <v>88.54847744642589</v>
+        <v>82.94321594485238</v>
       </c>
       <c r="F7">
-        <v>34.72401705984273</v>
+        <v>44.06779954684792</v>
       </c>
       <c r="G7">
-        <v>42.60014903129657</v>
+        <v>39.65922503725782</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1375,22 +1579,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>39.03703703703704</v>
+        <v>39.32407407407408</v>
       </c>
       <c r="C8">
-        <v>34.3859649122807</v>
+        <v>33.09649122807018</v>
       </c>
       <c r="D8">
-        <v>39.36665794294687</v>
+        <v>36.2643941376603</v>
       </c>
       <c r="E8">
-        <v>80.16230089581546</v>
+        <v>75.08789790158303</v>
       </c>
       <c r="F8">
-        <v>39.81909130122214</v>
+        <v>50.53389216391086</v>
       </c>
       <c r="G8">
-        <v>40.60833907649897</v>
+        <v>37.80492074431427</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1398,22 +1602,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>27.94580645161291</v>
+        <v>28.15129032258065</v>
       </c>
       <c r="C9">
-        <v>46.73469387755102</v>
+        <v>44.98214285714285</v>
       </c>
       <c r="D9">
-        <v>43.04587155963303</v>
+        <v>39.65366972477064</v>
       </c>
       <c r="E9">
-        <v>70.9002763902764</v>
+        <v>66.4121744921745</v>
       </c>
       <c r="F9">
-        <v>27.31088867847964</v>
+        <v>34.65989449479237</v>
       </c>
       <c r="G9">
-        <v>42.33754597124707</v>
+        <v>39.48833166165162</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1421,22 +1625,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>32.39874411302983</v>
+        <v>32.63697017268446</v>
       </c>
       <c r="C10">
-        <v>35.9825327510917</v>
+        <v>34.63318777292577</v>
       </c>
       <c r="D10">
-        <v>83.12470588235294</v>
+        <v>76.57411764705883</v>
       </c>
       <c r="E10">
-        <v>67.22547054149166</v>
+        <v>62.9699897831763</v>
       </c>
       <c r="F10">
-        <v>27.24363636363637</v>
+        <v>34.57454545454546</v>
       </c>
       <c r="G10">
-        <v>44.54872433105165</v>
+        <v>41.396</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1444,22 +1648,22 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>37.52883031301483</v>
+        <v>37.80477759472817</v>
       </c>
       <c r="C11">
-        <v>38.44660194174757</v>
+        <v>37.00485436893204</v>
       </c>
       <c r="D11">
-        <v>58.56375000000001</v>
+        <v>53.94867187500001</v>
       </c>
       <c r="E11">
-        <v>69.30489286151587</v>
+        <v>64.91778131504837</v>
       </c>
       <c r="F11">
-        <v>42.11383163265306</v>
+        <v>53.44611734693877</v>
       </c>
       <c r="G11">
-        <v>43.48745184369839</v>
+        <v>40.48527242707759</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1467,22 +1671,22 @@
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>34.25373134328358</v>
+        <v>34.50559701492537</v>
       </c>
       <c r="C12">
-        <v>36.96969696969697</v>
+        <v>35.58333333333333</v>
       </c>
       <c r="D12">
-        <v>47.43622974963181</v>
+        <v>43.69804860088365</v>
       </c>
       <c r="E12">
-        <v>56.27281322059954</v>
+        <v>52.71065334358186</v>
       </c>
       <c r="F12">
-        <v>31.7904243249376</v>
+        <v>40.34481506693896</v>
       </c>
       <c r="G12">
-        <v>37.57292445774121</v>
+        <v>34.97905759162303</v>
       </c>
     </row>
   </sheetData>
@@ -1490,7 +1694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -1506,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1526,22 +1730,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>11.80310880829015</v>
+        <v>11.88989637305699</v>
       </c>
       <c r="C2">
-        <v>9.082706766917291</v>
+        <v>8.742105263157896</v>
       </c>
       <c r="D2">
-        <v>26.70476190476191</v>
+        <v>24.60031055900621</v>
       </c>
       <c r="E2">
-        <v>6.992173681406499</v>
+        <v>6.549557805007993</v>
       </c>
       <c r="F2">
-        <v>22.31488172043011</v>
+        <v>28.31952688172043</v>
       </c>
       <c r="G2">
-        <v>9.7307933662035</v>
+        <v>9.059022859704172</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1549,22 +1753,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>32.69230769230769</v>
+        <v>32.93269230769231</v>
       </c>
       <c r="C3">
-        <v>2.401960784313729</v>
+        <v>2.311887254901961</v>
       </c>
       <c r="D3">
-        <v>3.166511627906978</v>
+        <v>2.916976744186044</v>
       </c>
       <c r="E3">
-        <v>21.70367346938775</v>
+        <v>20.32979591836734</v>
       </c>
       <c r="F3">
-        <v>-0.2019407008086276</v>
+        <v>-0.2562803234501416</v>
       </c>
       <c r="G3">
-        <v>8.072609633357303</v>
+        <v>7.515312724658521</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1572,22 +1776,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>-13.66666666666667</v>
+        <v>-13.7671568627451</v>
       </c>
       <c r="C4">
-        <v>4.393063583815021</v>
+        <v>4.228323699421964</v>
       </c>
       <c r="D4">
-        <v>6.232258064516138</v>
+        <v>5.741129032258073</v>
       </c>
       <c r="E4">
-        <v>-3.525168287210178</v>
+        <v>-3.302019446522067</v>
       </c>
       <c r="F4">
-        <v>0.9999485094851011</v>
+        <v>1.269021680216802</v>
       </c>
       <c r="G4">
-        <v>-3.067840095465399</v>
+        <v>-2.856050119331748</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1595,22 +1799,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>5.127868852459024</v>
+        <v>5.165573770491811</v>
       </c>
       <c r="C5">
-        <v>1.041666666666671</v>
+        <v>1.002604166666671</v>
       </c>
       <c r="D5">
-        <v>0.07272727272726343</v>
+        <v>0.06699604743081977</v>
       </c>
       <c r="E5">
-        <v>12.88306603773586</v>
+        <v>12.06754716981133</v>
       </c>
       <c r="F5">
-        <v>4.558284281377858</v>
+        <v>5.784859443051339</v>
       </c>
       <c r="G5">
-        <v>1.567842122290521</v>
+        <v>0.4509349725008036</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1618,22 +1822,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-4.213675213675213</v>
+        <v>-4.244658119658119</v>
       </c>
       <c r="C6">
-        <v>12.18274111675127</v>
+        <v>11.7258883248731</v>
       </c>
       <c r="D6">
-        <v>1.452631578947376</v>
+        <v>1.338157894736845</v>
       </c>
       <c r="E6">
-        <v>-18.67608477970627</v>
+        <v>-17.49385847797062</v>
       </c>
       <c r="F6">
-        <v>-4.389947052594422</v>
+        <v>-5.57122484998235</v>
       </c>
       <c r="G6">
-        <v>-6.497199751088985</v>
+        <v>-5.216554809843398</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1641,22 +1845,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>3.31707317073171</v>
+        <v>3.341463414634148</v>
       </c>
       <c r="C7">
-        <v>-4.5136186770428</v>
+        <v>-4.344357976653697</v>
       </c>
       <c r="D7">
-        <v>-1.118153846153845</v>
+        <v>-1.03003846153846</v>
       </c>
       <c r="E7">
-        <v>16.03847744642589</v>
+        <v>15.02321594485238</v>
       </c>
       <c r="F7">
-        <v>-2.735982940157271</v>
+        <v>-3.472200453152077</v>
       </c>
       <c r="G7">
-        <v>3.200149031296569</v>
+        <v>2.97922503725782</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1664,22 +1868,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>5.037037037037038</v>
+        <v>5.074074074074076</v>
       </c>
       <c r="C8">
-        <v>-5.614035087719301</v>
+        <v>-5.403508771929822</v>
       </c>
       <c r="D8">
-        <v>-15.83334205705313</v>
+        <v>-14.5856058623397</v>
       </c>
       <c r="E8">
-        <v>7.652300895815458</v>
+        <v>7.167897901583032</v>
       </c>
       <c r="F8">
-        <v>2.359091301222143</v>
+        <v>2.993892163910857</v>
       </c>
       <c r="G8">
-        <v>1.208339076498973</v>
+        <v>1.124920744314267</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1687,22 +1891,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>-6.054193548387094</v>
+        <v>-6.098709677419354</v>
       </c>
       <c r="C9">
-        <v>6.734693877551017</v>
+        <v>6.482142857142854</v>
       </c>
       <c r="D9">
-        <v>-12.15412844036697</v>
+        <v>-11.19633027522936</v>
       </c>
       <c r="E9">
-        <v>-1.609723609723602</v>
+        <v>-1.507825507825501</v>
       </c>
       <c r="F9">
-        <v>-10.14911132152036</v>
+        <v>-12.88010550520763</v>
       </c>
       <c r="G9">
-        <v>2.937545971247069</v>
+        <v>2.808331661651621</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1710,22 +1914,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-1.601255886970172</v>
+        <v>-1.613029827315543</v>
       </c>
       <c r="C10">
-        <v>-4.017467248908297</v>
+        <v>-3.866812227074234</v>
       </c>
       <c r="D10">
-        <v>27.92470588235294</v>
+        <v>25.72411764705883</v>
       </c>
       <c r="E10">
-        <v>-5.284529458508345</v>
+        <v>-4.950010216823706</v>
       </c>
       <c r="F10">
-        <v>-10.21636363636363</v>
+        <v>-12.96545454545454</v>
       </c>
       <c r="G10">
-        <v>5.148724331051653</v>
+        <v>4.716000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1733,22 +1937,280 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>3.528830313014829</v>
+        <v>3.554777594728172</v>
       </c>
       <c r="C11">
-        <v>-1.553398058252426</v>
+        <v>-1.495145631067963</v>
       </c>
       <c r="D11">
-        <v>3.363750000000003</v>
+        <v>3.098671875000008</v>
       </c>
       <c r="E11">
-        <v>-3.205107138484138</v>
+        <v>-3.002218684951629</v>
       </c>
       <c r="F11">
-        <v>4.653831632653059</v>
+        <v>5.906117346938771</v>
       </c>
       <c r="G11">
-        <v>4.087451843698396</v>
+        <v>3.80527242707759</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>32.39</v>
+      </c>
+      <c r="D2">
+        <v>33.66</v>
+      </c>
+      <c r="E2">
+        <v>34.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>36.67</v>
+      </c>
+      <c r="D3">
+        <v>37.46</v>
+      </c>
+      <c r="E3">
+        <v>38.13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>46.68</v>
+      </c>
+      <c r="D4">
+        <v>49.25</v>
+      </c>
+      <c r="E4">
+        <v>50.54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>61</v>
+      </c>
+      <c r="D5">
+        <v>64.77</v>
+      </c>
+      <c r="E5">
+        <v>66.45999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>42.81</v>
+      </c>
+      <c r="D6">
+        <v>44.62</v>
+      </c>
+      <c r="E6">
+        <v>46.46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>34.75</v>
+      </c>
+      <c r="D7">
+        <v>35.89</v>
+      </c>
+      <c r="E7">
+        <v>36.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>29.1</v>
+      </c>
+      <c r="D2">
+        <v>31.45</v>
+      </c>
+      <c r="E2">
+        <v>33.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>33.89</v>
+      </c>
+      <c r="D3">
+        <v>36.07</v>
+      </c>
+      <c r="E3">
+        <v>37.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>44.19</v>
+      </c>
+      <c r="D4">
+        <v>46.54</v>
+      </c>
+      <c r="E4">
+        <v>48.57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>59.15</v>
+      </c>
+      <c r="D5">
+        <v>62.52</v>
+      </c>
+      <c r="E5">
+        <v>64.59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>36.74</v>
+      </c>
+      <c r="D6">
+        <v>40.13</v>
+      </c>
+      <c r="E6">
+        <v>44.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>33.94</v>
+      </c>
+      <c r="D7">
+        <v>34.59</v>
+      </c>
+      <c r="E7">
+        <v>36.25</v>
       </c>
     </row>
   </sheetData>

--- a/3m_portfolio_returns.xlsx
+++ b/3m_portfolio_returns.xlsx
@@ -472,22 +472,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>538972.21</v>
+        <v>770678.14</v>
       </c>
       <c r="C2">
-        <v>1433667.91</v>
+        <v>1053926.49</v>
       </c>
       <c r="D2">
-        <v>-19225.44</v>
+        <v>150926.51</v>
       </c>
       <c r="E2">
-        <v>455715.55</v>
+        <v>1346784.82</v>
       </c>
       <c r="F2">
-        <v>625734.88</v>
+        <v>468296</v>
       </c>
       <c r="G2">
-        <v>3034865.11</v>
+        <v>3790611.96</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -495,22 +495,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>2256649.76</v>
+        <v>2247002.47</v>
       </c>
       <c r="C3">
-        <v>17565.21</v>
+        <v>29280.11</v>
       </c>
       <c r="D3">
-        <v>-335129.42</v>
+        <v>638452.7</v>
       </c>
       <c r="E3">
-        <v>41805.74</v>
+        <v>-97584.45</v>
       </c>
       <c r="F3">
-        <v>484798.96</v>
+        <v>367394.04</v>
       </c>
       <c r="G3">
-        <v>2465690.25</v>
+        <v>3184544.87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -518,22 +518,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>1059336.21</v>
+        <v>-260301.71</v>
       </c>
       <c r="C4">
-        <v>119729.22</v>
+        <v>162735.49</v>
       </c>
       <c r="D4">
-        <v>192542</v>
+        <v>-197379.39</v>
       </c>
       <c r="E4">
-        <v>85020.08</v>
+        <v>-20487.79</v>
       </c>
       <c r="F4">
-        <v>-208992.23</v>
+        <v>-224286.4</v>
       </c>
       <c r="G4">
-        <v>1247635.28</v>
+        <v>-539719.7999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -541,22 +541,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>2262.42</v>
+        <v>298911.88</v>
       </c>
       <c r="C5">
-        <v>-69875.3</v>
+        <v>-105394.95</v>
       </c>
       <c r="D5">
-        <v>-142313.76</v>
+        <v>346145.51</v>
       </c>
       <c r="E5">
-        <v>199248.44</v>
+        <v>207766.04</v>
       </c>
       <c r="F5">
-        <v>-70921.57000000001</v>
+        <v>-94331.48</v>
       </c>
       <c r="G5">
-        <v>-81599.77000000002</v>
+        <v>653097</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -564,22 +564,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>80121.94</v>
+        <v>-260263.87</v>
       </c>
       <c r="C6">
-        <v>-32176.86</v>
+        <v>-45327</v>
       </c>
       <c r="D6">
-        <v>56468.54</v>
+        <v>-289204.2</v>
       </c>
       <c r="E6">
-        <v>-118452.3</v>
+        <v>-365145.14</v>
       </c>
       <c r="F6">
-        <v>-263612.64</v>
+        <v>-224672.42</v>
       </c>
       <c r="G6">
-        <v>-277651.32</v>
+        <v>-1184612.63</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -587,22 +587,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>-138538.42</v>
+        <v>170935.61</v>
       </c>
       <c r="C7">
-        <v>-101346.26</v>
+        <v>-157207.25</v>
       </c>
       <c r="D7">
-        <v>-209504.92</v>
+        <v>450713.08</v>
       </c>
       <c r="E7">
-        <v>-54290.28</v>
+        <v>-260130.35</v>
       </c>
       <c r="F7">
-        <v>94140.78999999999</v>
+        <v>70900.42999999999</v>
       </c>
       <c r="G7">
-        <v>-409539.09</v>
+        <v>275211.52</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -610,22 +610,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>-4871.77</v>
+        <v>292492.43</v>
       </c>
       <c r="C8">
-        <v>-841909.36</v>
+        <v>-312734.74</v>
       </c>
       <c r="D8">
-        <v>-33060.85</v>
+        <v>172802.54</v>
       </c>
       <c r="E8">
-        <v>131279.69</v>
+        <v>66696.10000000001</v>
       </c>
       <c r="F8">
-        <v>-31952.15</v>
+        <v>-50302.31</v>
       </c>
       <c r="G8">
-        <v>-780514.4400000001</v>
+        <v>168954.02</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -633,22 +633,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>249703.53</v>
+        <v>-260301.71</v>
       </c>
       <c r="C9">
-        <v>-597189.0600000001</v>
+        <v>-312734.74</v>
       </c>
       <c r="D9">
-        <v>169735.87</v>
+        <v>-134131.23</v>
       </c>
       <c r="E9">
-        <v>-318478.99</v>
+        <v>-459052.68</v>
       </c>
       <c r="F9">
-        <v>81430.37</v>
+        <v>59730.28</v>
       </c>
       <c r="G9">
-        <v>-414798.28</v>
+        <v>-1106490.08</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -656,22 +656,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-144052.15</v>
+        <v>-176446.77</v>
       </c>
       <c r="C10">
-        <v>1536900.52</v>
+        <v>1107032.02</v>
       </c>
       <c r="D10">
-        <v>184872.78</v>
+        <v>-250854.28</v>
       </c>
       <c r="E10">
-        <v>-320373.2</v>
+        <v>-459053.09</v>
       </c>
       <c r="F10">
-        <v>233838.31</v>
+        <v>184421.75</v>
       </c>
       <c r="G10">
-        <v>1491186.26</v>
+        <v>405099.6299999999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -679,22 +679,22 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>-122242.47</v>
+        <v>185901.35</v>
       </c>
       <c r="C11">
-        <v>23565.69</v>
+        <v>37866.12</v>
       </c>
       <c r="D11">
-        <v>191205.1</v>
+        <v>-186889.8</v>
       </c>
       <c r="E11">
-        <v>201994.76</v>
+        <v>213895.04</v>
       </c>
       <c r="F11">
-        <v>158351.15</v>
+        <v>124893.61</v>
       </c>
       <c r="G11">
-        <v>452874.23</v>
+        <v>375666.32</v>
       </c>
     </row>
   </sheetData>
@@ -735,22 +735,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>-144052.15</v>
+        <v>-260301.71</v>
       </c>
       <c r="C2">
-        <v>-841909.36</v>
+        <v>-312734.74</v>
       </c>
       <c r="D2">
-        <v>-335129.42</v>
+        <v>-289204.2</v>
       </c>
       <c r="E2">
-        <v>-320373.2</v>
+        <v>-459053.09</v>
       </c>
       <c r="F2">
-        <v>-263612.64</v>
+        <v>-224672.42</v>
       </c>
       <c r="G2">
-        <v>-780514.4400000001</v>
+        <v>-1184612.63</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -758,22 +758,22 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>-144052.15</v>
+        <v>-260301.71</v>
       </c>
       <c r="C3">
-        <v>-841909.36</v>
+        <v>-312734.74</v>
       </c>
       <c r="D3">
-        <v>-335129.42</v>
+        <v>-289204.2</v>
       </c>
       <c r="E3">
-        <v>-320373.2</v>
+        <v>-459053.09</v>
       </c>
       <c r="F3">
-        <v>-263612.64</v>
+        <v>-224672.42</v>
       </c>
       <c r="G3">
-        <v>-780514.4400000001</v>
+        <v>-1184612.63</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -781,22 +781,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>-4871.77</v>
+        <v>-176446.77</v>
       </c>
       <c r="C4">
-        <v>-69875.3</v>
+        <v>-105394.95</v>
       </c>
       <c r="D4">
-        <v>-33060.85</v>
+        <v>-186889.8</v>
       </c>
       <c r="E4">
-        <v>-54290.28</v>
+        <v>-260130.35</v>
       </c>
       <c r="F4">
-        <v>-31952.15</v>
+        <v>-50302.31</v>
       </c>
       <c r="G4">
-        <v>-277651.32</v>
+        <v>168954.02</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -804,22 +804,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>249703.53</v>
+        <v>292492.43</v>
       </c>
       <c r="C5">
-        <v>23565.69</v>
+        <v>37866.12</v>
       </c>
       <c r="D5">
-        <v>169735.87</v>
+        <v>172802.54</v>
       </c>
       <c r="E5">
-        <v>131279.69</v>
+        <v>66696.10000000001</v>
       </c>
       <c r="F5">
-        <v>158351.15</v>
+        <v>124893.61</v>
       </c>
       <c r="G5">
-        <v>1247635.28</v>
+        <v>405099.6299999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -827,22 +827,22 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2256649.76</v>
+        <v>2247002.47</v>
       </c>
       <c r="C6">
-        <v>1536900.52</v>
+        <v>1107032.02</v>
       </c>
       <c r="D6">
-        <v>192542</v>
+        <v>638452.7</v>
       </c>
       <c r="E6">
-        <v>455715.55</v>
+        <v>1346784.82</v>
       </c>
       <c r="F6">
-        <v>625734.88</v>
+        <v>468296</v>
       </c>
       <c r="G6">
-        <v>3034865.11</v>
+        <v>3790611.96</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -850,22 +850,22 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2256649.76</v>
+        <v>2247002.47</v>
       </c>
       <c r="C7">
-        <v>1536900.52</v>
+        <v>1107032.02</v>
       </c>
       <c r="D7">
-        <v>192542</v>
+        <v>638452.7</v>
       </c>
       <c r="E7">
-        <v>455715.55</v>
+        <v>1346784.82</v>
       </c>
       <c r="F7">
-        <v>625734.88</v>
+        <v>468296</v>
       </c>
       <c r="G7">
-        <v>3034865.11</v>
+        <v>3790611.96</v>
       </c>
     </row>
   </sheetData>
@@ -909,22 +909,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>911766.4140434922</v>
+        <v>834173.5274747874</v>
       </c>
       <c r="C2">
-        <v>1270620.12355599</v>
+        <v>1162488.170458746</v>
       </c>
       <c r="D2">
-        <v>253268.0455616006</v>
+        <v>231714.5002367762</v>
       </c>
       <c r="E2">
-        <v>1564562.486316134</v>
+        <v>1431415.533696986</v>
       </c>
       <c r="F2">
-        <v>648661.5049046151</v>
+        <v>593459.2976327551</v>
       </c>
       <c r="G2">
-        <v>4648878.574381832</v>
+        <v>4253251.02950005</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -932,22 +932,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>2525415.010195092</v>
+        <v>2310497.858820809</v>
       </c>
       <c r="C3">
-        <v>150663.5187477629</v>
+        <v>137841.7947401935</v>
       </c>
       <c r="D3">
-        <v>786142.7950103905</v>
+        <v>719240.6940111574</v>
       </c>
       <c r="E3">
-        <v>-14158.6609736009</v>
+        <v>-12953.7346262733</v>
       </c>
       <c r="F3">
-        <v>538125.8152565246</v>
+        <v>492330.384870229</v>
       </c>
       <c r="G3">
-        <v>3986188.47823617</v>
+        <v>3646956.997816116</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -955,22 +955,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>-1055722.510144301</v>
+        <v>-965878.7127462677</v>
       </c>
       <c r="C4">
-        <v>296532.6011971016</v>
+        <v>271297.1679389599</v>
       </c>
       <c r="D4">
-        <v>-127687.4006650624</v>
+        <v>-116820.9837369387</v>
       </c>
       <c r="E4">
-        <v>70109.35329116133</v>
+        <v>64142.92700748072</v>
       </c>
       <c r="F4">
-        <v>-204504.3706346531</v>
+        <v>-187100.6977321961</v>
       </c>
       <c r="G4">
-        <v>-1021272.326955754</v>
+        <v>-934360.2992689618</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -978,22 +978,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>396117.5543860112</v>
+        <v>362407.2707081563</v>
       </c>
       <c r="C5">
-        <v>3460.38420369235</v>
+        <v>3165.899569398497</v>
       </c>
       <c r="D5">
-        <v>466645.8679215842</v>
+        <v>426933.503724248</v>
       </c>
       <c r="E5">
-        <v>319594.8191864683</v>
+        <v>292396.7515990626</v>
       </c>
       <c r="F5">
-        <v>32288.70954477804</v>
+        <v>29540.88495004765</v>
       </c>
       <c r="G5">
-        <v>1218107.335242534</v>
+        <v>1114444.310550913</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1001,22 +1001,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-325497.9346473675</v>
+        <v>-297797.5018035709</v>
       </c>
       <c r="C6">
-        <v>69116.62133165533</v>
+        <v>63234.67824141193</v>
       </c>
       <c r="D6">
-        <v>-676478.5467896864</v>
+        <v>-618909.0615150175</v>
       </c>
       <c r="E6">
-        <v>-307792.1972185533</v>
+        <v>-281598.5530157601</v>
       </c>
       <c r="F6">
-        <v>-373525.7483919106</v>
+        <v>-341738.0661752222</v>
       </c>
       <c r="G6">
-        <v>-1614177.805715862</v>
+        <v>-1476808.504268159</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1024,22 +1024,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>256237.2303027217</v>
+        <v>234431.0022608433</v>
       </c>
       <c r="C7">
-        <v>-53202.07621477654</v>
+        <v>-48674.48822582496</v>
       </c>
       <c r="D7">
-        <v>580940.0655252319</v>
+        <v>531501.068965127</v>
       </c>
       <c r="E7">
-        <v>-191827.8718659721</v>
+        <v>-175502.9907635819</v>
       </c>
       <c r="F7">
-        <v>213324.1770161813</v>
+        <v>195169.9234544909</v>
       </c>
       <c r="G7">
-        <v>805471.5247633861</v>
+        <v>736924.5156910543</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1047,22 +1047,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>389100.9793485774</v>
+        <v>355987.818247947</v>
       </c>
       <c r="C8">
-        <v>-753354.8927560259</v>
+        <v>-689243.0985078018</v>
       </c>
       <c r="D8">
-        <v>277178.9403753216</v>
+        <v>253590.5368670188</v>
       </c>
       <c r="E8">
-        <v>165402.8821630581</v>
+        <v>151326.8130337964</v>
       </c>
       <c r="F8">
-        <v>80548.72961531974</v>
+        <v>73693.89449085269</v>
       </c>
       <c r="G8">
-        <v>158876.6387462509</v>
+        <v>145355.9641318131</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1070,22 +1070,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>-467674.2738879995</v>
+        <v>-427874.3905780159</v>
       </c>
       <c r="C9">
-        <v>-578296.8683896285</v>
+        <v>-529082.8124419028</v>
       </c>
       <c r="D9">
-        <v>-58306.8400622241</v>
+        <v>-53344.82790928286</v>
       </c>
       <c r="E9">
-        <v>-711584.271072312</v>
+        <v>-651027.2284142845</v>
       </c>
       <c r="F9">
-        <v>201087.5422360626</v>
+        <v>183974.6472941372</v>
       </c>
       <c r="G9">
-        <v>-1614774.711176101</v>
+        <v>-1477354.612049349</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1093,22 +1093,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-123693.7964177189</v>
+        <v>-113167.2420646926</v>
       </c>
       <c r="C10">
-        <v>1328665.403010877</v>
+        <v>1215593.697017254</v>
       </c>
       <c r="D10">
-        <v>-191414.3596329959</v>
+        <v>-175124.6691312836</v>
       </c>
       <c r="E10">
-        <v>-716299.5301644261</v>
+        <v>-655341.2108655385</v>
       </c>
       <c r="F10">
-        <v>337684.0642203725</v>
+        <v>308946.570836611</v>
       </c>
       <c r="G10">
-        <v>634941.7810161083</v>
+        <v>580907.1457923499</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1116,22 +1116,22 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>272595.043604584</v>
+        <v>249396.737578154</v>
       </c>
       <c r="C11">
-        <v>160048.1762711144</v>
+        <v>146427.801802769</v>
       </c>
       <c r="D11">
-        <v>-116094.2587764961</v>
+        <v>-106214.438118732</v>
       </c>
       <c r="E11">
-        <v>326293.9271335739</v>
+        <v>298525.7539631538</v>
       </c>
       <c r="F11">
-        <v>272472.4042920443</v>
+        <v>249284.5350815795</v>
       </c>
       <c r="G11">
-        <v>915315.2925248205</v>
+        <v>837420.3903069245</v>
       </c>
     </row>
   </sheetData>
@@ -1175,22 +1175,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>-372794.2040434922</v>
+        <v>-63495.38747478742</v>
       </c>
       <c r="C2">
-        <v>163047.7864440095</v>
+        <v>-108561.6804587459</v>
       </c>
       <c r="D2">
-        <v>-272493.4855616006</v>
+        <v>-80787.99023677624</v>
       </c>
       <c r="E2">
-        <v>-1108846.936316134</v>
+        <v>-84630.7136969862</v>
       </c>
       <c r="F2">
-        <v>-22926.62490461511</v>
+        <v>-125163.2976327551</v>
       </c>
       <c r="G2">
-        <v>-1614013.464381832</v>
+        <v>-462639.0695000505</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1198,22 +1198,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>-268765.2501950925</v>
+        <v>-63495.38882080885</v>
       </c>
       <c r="C3">
-        <v>-133098.3087477629</v>
+        <v>-108561.6847401935</v>
       </c>
       <c r="D3">
-        <v>-1121272.21501039</v>
+        <v>-80787.99401115743</v>
       </c>
       <c r="E3">
-        <v>55964.4009736009</v>
+        <v>-84630.71537372669</v>
       </c>
       <c r="F3">
-        <v>-53326.85525652458</v>
+        <v>-124936.344870229</v>
       </c>
       <c r="G3">
-        <v>-1520498.22823617</v>
+        <v>-462412.1278161155</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1221,22 +1221,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>2115058.720144302</v>
+        <v>705577.0027462677</v>
       </c>
       <c r="C4">
-        <v>-176803.3811971016</v>
+        <v>-108561.6779389599</v>
       </c>
       <c r="D4">
-        <v>320229.4006650624</v>
+        <v>-80558.40626306133</v>
       </c>
       <c r="E4">
-        <v>14910.72670883867</v>
+        <v>-84630.71700748072</v>
       </c>
       <c r="F4">
-        <v>-4487.859365346871</v>
+        <v>-37185.70226780392</v>
       </c>
       <c r="G4">
-        <v>2268907.606955754</v>
+        <v>394640.4992689618</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1244,22 +1244,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>-393855.1343860112</v>
+        <v>-63495.39070815628</v>
       </c>
       <c r="C5">
-        <v>-73335.68420369235</v>
+        <v>-108560.8495693985</v>
       </c>
       <c r="D5">
-        <v>-608959.6279215843</v>
+        <v>-80787.99372424796</v>
       </c>
       <c r="E5">
-        <v>-120346.3791864683</v>
+        <v>-84630.71159906263</v>
       </c>
       <c r="F5">
-        <v>-103210.2795447781</v>
+        <v>-123872.3649500476</v>
       </c>
       <c r="G5">
-        <v>-1299707.105242534</v>
+        <v>-461347.310550913</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1267,22 +1267,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>405619.8746473675</v>
+        <v>37533.6318035709</v>
       </c>
       <c r="C6">
-        <v>-101293.4813316553</v>
+        <v>-108561.6782414119</v>
       </c>
       <c r="D6">
-        <v>732947.0867896865</v>
+        <v>329704.8615150175</v>
       </c>
       <c r="E6">
-        <v>189339.8972185533</v>
+        <v>-83546.58698423993</v>
       </c>
       <c r="F6">
-        <v>109913.1083919106</v>
+        <v>117065.6461752222</v>
       </c>
       <c r="G6">
-        <v>1336526.485715862</v>
+        <v>292195.8742681586</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1290,22 +1290,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>-394775.6503027218</v>
+        <v>-63495.39226084328</v>
       </c>
       <c r="C7">
-        <v>-48144.18378522345</v>
+        <v>-108532.761774175</v>
       </c>
       <c r="D7">
-        <v>-790444.9855252319</v>
+        <v>-80787.98896512698</v>
       </c>
       <c r="E7">
-        <v>137537.5918659721</v>
+        <v>-84627.35923641807</v>
       </c>
       <c r="F7">
-        <v>-119183.3870161813</v>
+        <v>-124269.4934544909</v>
       </c>
       <c r="G7">
-        <v>-1215010.614763386</v>
+        <v>-461712.9956910543</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1313,22 +1313,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>-393972.7493485774</v>
+        <v>-63495.38824794698</v>
       </c>
       <c r="C8">
-        <v>-88554.4672439741</v>
+        <v>376508.3585078018</v>
       </c>
       <c r="D8">
-        <v>-310239.7903753216</v>
+        <v>-80787.99686701875</v>
       </c>
       <c r="E8">
-        <v>-34123.19216305812</v>
+        <v>-84630.7130337964</v>
       </c>
       <c r="F8">
-        <v>-112500.8796153197</v>
+        <v>-123996.2044908527</v>
       </c>
       <c r="G8">
-        <v>-939391.0787462511</v>
+        <v>23598.05586818696</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1336,22 +1336,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>717377.8038879995</v>
+        <v>167572.6805780159</v>
       </c>
       <c r="C9">
-        <v>-18892.19161037158</v>
+        <v>216348.0724419028</v>
       </c>
       <c r="D9">
-        <v>228042.7100622241</v>
+        <v>-80786.40209071715</v>
       </c>
       <c r="E9">
-        <v>393105.281072312</v>
+        <v>191974.5484142845</v>
       </c>
       <c r="F9">
-        <v>-119657.1722360626</v>
+        <v>-124244.3672941372</v>
       </c>
       <c r="G9">
-        <v>1199976.431176101</v>
+        <v>370864.5320493493</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1359,22 +1359,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-20358.35358228105</v>
+        <v>-63279.52793530734</v>
       </c>
       <c r="C10">
-        <v>208235.1169891232</v>
+        <v>-108561.6770172536</v>
       </c>
       <c r="D10">
-        <v>376287.1396329958</v>
+        <v>-75729.61086871641</v>
       </c>
       <c r="E10">
-        <v>395926.3301644261</v>
+        <v>196288.1208655384</v>
       </c>
       <c r="F10">
-        <v>-103845.7542203725</v>
+        <v>-124524.820836611</v>
       </c>
       <c r="G10">
-        <v>856244.4789838919</v>
+        <v>-175807.51579235</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1382,22 +1382,22 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>-394837.513604584</v>
+        <v>-63495.38757815404</v>
       </c>
       <c r="C11">
-        <v>-136482.4862711144</v>
+        <v>-108561.681802769</v>
       </c>
       <c r="D11">
-        <v>307299.3587764961</v>
+        <v>-80675.36188126804</v>
       </c>
       <c r="E11">
-        <v>-124299.1671335739</v>
+        <v>-84630.7139631538</v>
       </c>
       <c r="F11">
-        <v>-114121.2542920444</v>
+        <v>-124390.9250815795</v>
       </c>
       <c r="G11">
-        <v>-462441.0625248206</v>
+        <v>-461754.0703069245</v>
       </c>
     </row>
   </sheetData>
@@ -1441,22 +1441,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>46.13989637305699</v>
+        <v>45.80310880829015</v>
       </c>
       <c r="C2">
         <v>47.2421052631579</v>
       </c>
       <c r="D2">
-        <v>75.45031055900621</v>
+        <v>76.78571428571429</v>
       </c>
       <c r="E2">
-        <v>74.46955780500799</v>
+        <v>72.06837506659564</v>
       </c>
       <c r="F2">
-        <v>75.85952688172043</v>
+        <v>64.41836559139784</v>
       </c>
       <c r="G2">
-        <v>45.73902285970417</v>
+        <v>43.29495293590318</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1464,22 +1464,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>67.18269230769231</v>
+        <v>66.69230769230769</v>
       </c>
       <c r="C3">
         <v>40.81188725490196</v>
       </c>
       <c r="D3">
-        <v>53.76697674418605</v>
+        <v>54.71860465116279</v>
       </c>
       <c r="E3">
-        <v>88.24979591836734</v>
+        <v>85.40428571428571</v>
       </c>
       <c r="F3">
-        <v>47.28371967654986</v>
+        <v>40.15237196765498</v>
       </c>
       <c r="G3">
-        <v>44.19531272465852</v>
+        <v>41.83373112868441</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1487,22 +1487,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>20.4828431372549</v>
+        <v>20.33333333333333</v>
       </c>
       <c r="C4">
         <v>42.72832369942196</v>
       </c>
       <c r="D4">
-        <v>56.59112903225807</v>
+        <v>57.59274193548388</v>
       </c>
       <c r="E4">
-        <v>64.61798055347793</v>
+        <v>62.5344502617801</v>
       </c>
       <c r="F4">
-        <v>48.8090216802168</v>
+        <v>41.44762737127371</v>
       </c>
       <c r="G4">
-        <v>33.82394988066825</v>
+        <v>32.01656324582338</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1510,22 +1510,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>39.41557377049181</v>
+        <v>39.12786885245902</v>
       </c>
       <c r="C5">
         <v>39.50260416666667</v>
       </c>
       <c r="D5">
-        <v>50.91699604743082</v>
+        <v>51.81818181818181</v>
       </c>
       <c r="E5">
-        <v>79.98754716981134</v>
+        <v>77.40844339622643</v>
       </c>
       <c r="F5">
-        <v>53.32485944305134</v>
+        <v>45.28238484888478</v>
       </c>
       <c r="G5">
-        <v>37.1309349725008</v>
+        <v>35.14683921061145</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1533,22 +1533,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>30.00534188034188</v>
+        <v>29.78632478632479</v>
       </c>
       <c r="C6">
         <v>50.2258883248731</v>
       </c>
       <c r="D6">
-        <v>52.18815789473685</v>
+        <v>53.11184210526316</v>
       </c>
       <c r="E6">
-        <v>50.42614152202938</v>
+        <v>48.80021028037384</v>
       </c>
       <c r="F6">
-        <v>41.96877515001765</v>
+        <v>35.63902929756442</v>
       </c>
       <c r="G6">
-        <v>31.4634451901566</v>
+        <v>29.78219239373602</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1556,22 +1556,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>37.59146341463415</v>
+        <v>37.31707317073171</v>
       </c>
       <c r="C7">
         <v>34.1556420233463</v>
       </c>
       <c r="D7">
-        <v>49.81996153846154</v>
+        <v>50.70173076923077</v>
       </c>
       <c r="E7">
-        <v>82.94321594485238</v>
+        <v>80.26881013037614</v>
       </c>
       <c r="F7">
-        <v>44.06779954684792</v>
+        <v>37.42147807543649</v>
       </c>
       <c r="G7">
-        <v>39.65922503725782</v>
+        <v>37.54002980625931</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1579,22 +1579,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>39.32407407407408</v>
+        <v>39.03703703703704</v>
       </c>
       <c r="C8">
         <v>33.09649122807018</v>
       </c>
       <c r="D8">
-        <v>36.2643941376603</v>
+        <v>36.90624182151269</v>
       </c>
       <c r="E8">
-        <v>75.08789790158303</v>
+        <v>72.66677751871397</v>
       </c>
       <c r="F8">
-        <v>50.53389216391086</v>
+        <v>42.91235226455787</v>
       </c>
       <c r="G8">
-        <v>37.80492074431427</v>
+        <v>35.78481047553412</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1602,22 +1602,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>28.15129032258065</v>
+        <v>27.94580645161291</v>
       </c>
       <c r="C9">
         <v>44.98214285714285</v>
       </c>
       <c r="D9">
-        <v>39.65366972477064</v>
+        <v>40.35550458715596</v>
       </c>
       <c r="E9">
-        <v>66.4121744921745</v>
+        <v>64.27079254079254</v>
       </c>
       <c r="F9">
-        <v>34.65989449479237</v>
+        <v>29.43247666711754</v>
       </c>
       <c r="G9">
-        <v>39.48833166165162</v>
+        <v>37.37826813774657</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1625,22 +1625,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>32.63697017268446</v>
+        <v>32.39874411302983</v>
       </c>
       <c r="C10">
         <v>34.63318777292577</v>
       </c>
       <c r="D10">
-        <v>76.57411764705883</v>
+        <v>77.92941176470588</v>
       </c>
       <c r="E10">
-        <v>62.9699897831763</v>
+        <v>60.93959700306505</v>
       </c>
       <c r="F10">
-        <v>34.57454545454546</v>
+        <v>29.36</v>
       </c>
       <c r="G10">
-        <v>41.396</v>
+        <v>39.184</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1648,22 +1648,22 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>37.80477759472817</v>
+        <v>37.52883031301483</v>
       </c>
       <c r="C11">
         <v>37.00485436893204</v>
       </c>
       <c r="D11">
-        <v>53.94867187500001</v>
+        <v>54.903515625</v>
       </c>
       <c r="E11">
-        <v>64.91778131504837</v>
+        <v>62.82458430268153</v>
       </c>
       <c r="F11">
-        <v>53.44611734693877</v>
+        <v>45.38535459183673</v>
       </c>
       <c r="G11">
-        <v>40.48527242707759</v>
+        <v>38.32193725921848</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1671,22 +1671,22 @@
         <v>45379</v>
       </c>
       <c r="B12">
-        <v>34.50559701492537</v>
+        <v>34.25373134328358</v>
       </c>
       <c r="C12">
         <v>35.58333333333333</v>
       </c>
       <c r="D12">
-        <v>43.69804860088365</v>
+        <v>44.47146539027982</v>
       </c>
       <c r="E12">
-        <v>52.71065334358186</v>
+        <v>51.01106072252114</v>
       </c>
       <c r="F12">
-        <v>40.34481506693896</v>
+        <v>34.25999546176537</v>
       </c>
       <c r="G12">
-        <v>34.97905759162303</v>
+        <v>33.10994764397905</v>
       </c>
     </row>
   </sheetData>
@@ -1730,22 +1730,22 @@
         <v>44469</v>
       </c>
       <c r="B2">
-        <v>11.88989637305699</v>
+        <v>11.80310880829015</v>
       </c>
       <c r="C2">
         <v>8.742105263157896</v>
       </c>
       <c r="D2">
-        <v>24.60031055900621</v>
+        <v>25.03571428571429</v>
       </c>
       <c r="E2">
-        <v>6.549557805007993</v>
+        <v>6.338375066595631</v>
       </c>
       <c r="F2">
-        <v>28.31952688172043</v>
+        <v>24.04836559139785</v>
       </c>
       <c r="G2">
-        <v>9.059022859704172</v>
+        <v>8.574952935903184</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1753,22 +1753,22 @@
         <v>44561</v>
       </c>
       <c r="B3">
-        <v>32.93269230769231</v>
+        <v>32.69230769230769</v>
       </c>
       <c r="C3">
         <v>2.311887254901961</v>
       </c>
       <c r="D3">
-        <v>2.916976744186044</v>
+        <v>2.968604651162792</v>
       </c>
       <c r="E3">
-        <v>20.32979591836734</v>
+        <v>19.6742857142857</v>
       </c>
       <c r="F3">
-        <v>-0.2562803234501416</v>
+        <v>-0.2176280323450186</v>
       </c>
       <c r="G3">
-        <v>7.515312724658521</v>
+        <v>7.113731128684407</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1776,22 +1776,22 @@
         <v>44651</v>
       </c>
       <c r="B4">
-        <v>-13.7671568627451</v>
+        <v>-13.66666666666667</v>
       </c>
       <c r="C4">
         <v>4.228323699421964</v>
       </c>
       <c r="D4">
-        <v>5.741129032258073</v>
+        <v>5.842741935483879</v>
       </c>
       <c r="E4">
-        <v>-3.302019446522067</v>
+        <v>-3.195549738219903</v>
       </c>
       <c r="F4">
-        <v>1.269021680216802</v>
+        <v>1.077627371273714</v>
       </c>
       <c r="G4">
-        <v>-2.856050119331748</v>
+        <v>-2.703436754176614</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1799,22 +1799,22 @@
         <v>44742</v>
       </c>
       <c r="B5">
-        <v>5.165573770491811</v>
+        <v>5.127868852459024</v>
       </c>
       <c r="C5">
         <v>1.002604166666671</v>
       </c>
       <c r="D5">
-        <v>0.06699604743081977</v>
+        <v>0.06818181818181301</v>
       </c>
       <c r="E5">
-        <v>12.06754716981133</v>
+        <v>11.67844339622643</v>
       </c>
       <c r="F5">
-        <v>5.784859443051339</v>
+        <v>4.912384848884784</v>
       </c>
       <c r="G5">
-        <v>0.4509349725008036</v>
+        <v>0.4268392106114476</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1822,22 +1822,22 @@
         <v>44834</v>
       </c>
       <c r="B6">
-        <v>-4.244658119658119</v>
+        <v>-4.213675213675213</v>
       </c>
       <c r="C6">
         <v>11.7258883248731</v>
       </c>
       <c r="D6">
-        <v>1.338157894736845</v>
+        <v>1.361842105263165</v>
       </c>
       <c r="E6">
-        <v>-17.49385847797062</v>
+        <v>-16.92978971962616</v>
       </c>
       <c r="F6">
-        <v>-5.57122484998235</v>
+        <v>-4.730970702435577</v>
       </c>
       <c r="G6">
-        <v>-5.216554809843398</v>
+        <v>-4.937807606263981</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1845,22 +1845,22 @@
         <v>44925</v>
       </c>
       <c r="B7">
-        <v>3.341463414634148</v>
+        <v>3.31707317073171</v>
       </c>
       <c r="C7">
         <v>-4.344357976653697</v>
       </c>
       <c r="D7">
-        <v>-1.03003846153846</v>
+        <v>-1.048269230769229</v>
       </c>
       <c r="E7">
-        <v>15.02321594485238</v>
+        <v>14.53881013037613</v>
       </c>
       <c r="F7">
-        <v>-3.472200453152077</v>
+        <v>-2.948521924563508</v>
       </c>
       <c r="G7">
-        <v>2.97922503725782</v>
+        <v>2.820029806259313</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1868,22 +1868,22 @@
         <v>45016</v>
       </c>
       <c r="B8">
-        <v>5.074074074074076</v>
+        <v>5.037037037037038</v>
       </c>
       <c r="C8">
         <v>-5.403508771929822</v>
       </c>
       <c r="D8">
-        <v>-14.5856058623397</v>
+        <v>-14.84375817848731</v>
       </c>
       <c r="E8">
-        <v>7.167897901583032</v>
+        <v>6.936777518713967</v>
       </c>
       <c r="F8">
-        <v>2.993892163910857</v>
+        <v>2.54235226455787</v>
       </c>
       <c r="G8">
-        <v>1.124920744314267</v>
+        <v>1.064810475534117</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1891,22 +1891,22 @@
         <v>45107</v>
       </c>
       <c r="B9">
-        <v>-6.098709677419354</v>
+        <v>-6.054193548387094</v>
       </c>
       <c r="C9">
         <v>6.482142857142854</v>
       </c>
       <c r="D9">
-        <v>-11.19633027522936</v>
+        <v>-11.39449541284404</v>
       </c>
       <c r="E9">
-        <v>-1.507825507825501</v>
+        <v>-1.459207459207462</v>
       </c>
       <c r="F9">
-        <v>-12.88010550520763</v>
+        <v>-10.93752333288246</v>
       </c>
       <c r="G9">
-        <v>2.808331661651621</v>
+        <v>2.658268137746575</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1914,22 +1914,22 @@
         <v>45198</v>
       </c>
       <c r="B10">
-        <v>-1.613029827315543</v>
+        <v>-1.601255886970172</v>
       </c>
       <c r="C10">
         <v>-3.866812227074234</v>
       </c>
       <c r="D10">
-        <v>25.72411764705883</v>
+        <v>26.17941176470588</v>
       </c>
       <c r="E10">
-        <v>-4.950010216823706</v>
+        <v>-4.790402996934951</v>
       </c>
       <c r="F10">
-        <v>-12.96545454545454</v>
+        <v>-11.01</v>
       </c>
       <c r="G10">
-        <v>4.716000000000001</v>
+        <v>4.463999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1937,22 +1937,22 @@
         <v>45289</v>
       </c>
       <c r="B11">
-        <v>3.554777594728172</v>
+        <v>3.528830313014829</v>
       </c>
       <c r="C11">
         <v>-1.495145631067963</v>
       </c>
       <c r="D11">
-        <v>3.098671875000008</v>
+        <v>3.153515625000004</v>
       </c>
       <c r="E11">
-        <v>-3.002218684951629</v>
+        <v>-2.905415697318475</v>
       </c>
       <c r="F11">
-        <v>5.906117346938771</v>
+        <v>5.015354591836733</v>
       </c>
       <c r="G11">
-        <v>3.80527242707759</v>
+        <v>3.601937259218481</v>
       </c>
     </row>
   </sheetData>
@@ -1990,13 +1990,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>32.39</v>
+        <v>32.15</v>
       </c>
       <c r="D2">
-        <v>33.66</v>
+        <v>33.42</v>
       </c>
       <c r="E2">
-        <v>34.25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2024,13 +2024,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>46.68</v>
+        <v>47.51</v>
       </c>
       <c r="D4">
-        <v>49.25</v>
+        <v>50.12</v>
       </c>
       <c r="E4">
-        <v>50.54</v>
+        <v>51.43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2041,13 +2041,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>59.03</v>
       </c>
       <c r="D5">
-        <v>64.77</v>
+        <v>62.69</v>
       </c>
       <c r="E5">
-        <v>66.45999999999999</v>
+        <v>64.31999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2058,13 +2058,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>42.81</v>
+        <v>36.35</v>
       </c>
       <c r="D6">
-        <v>44.62</v>
+        <v>37.79</v>
       </c>
       <c r="E6">
-        <v>46.46</v>
+        <v>39.39</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2075,13 +2075,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>34.75</v>
+        <v>32.9</v>
       </c>
       <c r="D7">
-        <v>35.89</v>
+        <v>33.83</v>
       </c>
       <c r="E7">
-        <v>36.55</v>
+        <v>34.57</v>
       </c>
     </row>
   </sheetData>
@@ -2119,13 +2119,13 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>29.1</v>
+        <v>28.88</v>
       </c>
       <c r="D2">
-        <v>31.45</v>
+        <v>31.22</v>
       </c>
       <c r="E2">
-        <v>33.53</v>
+        <v>33.29</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2142,7 +2142,7 @@
         <v>36.07</v>
       </c>
       <c r="E3">
-        <v>37.68</v>
+        <v>37.66</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2153,13 +2153,13 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>44.19</v>
+        <v>44.97</v>
       </c>
       <c r="D4">
-        <v>46.54</v>
+        <v>47.36</v>
       </c>
       <c r="E4">
-        <v>48.57</v>
+        <v>49.43</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2170,13 +2170,13 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>59.15</v>
+        <v>57.24</v>
       </c>
       <c r="D5">
-        <v>62.52</v>
+        <v>60.03</v>
       </c>
       <c r="E5">
-        <v>64.59</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2187,13 +2187,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>36.74</v>
+        <v>31.2</v>
       </c>
       <c r="D6">
-        <v>40.13</v>
+        <v>34.08</v>
       </c>
       <c r="E6">
-        <v>44.96</v>
+        <v>38.19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2204,13 +2204,13 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>33.94</v>
+        <v>32.12</v>
       </c>
       <c r="D7">
-        <v>34.59</v>
+        <v>33.26</v>
       </c>
       <c r="E7">
-        <v>36.25</v>
+        <v>34.31</v>
       </c>
     </row>
   </sheetData>
